--- a/dados/dados_minerados.xlsx
+++ b/dados/dados_minerados.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpalbino/Library/Mobile Documents/com~apple~CloudDocs/GitHub/espaco-virtual-e-geracoes/dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788E2846-8E19-704B-8028-F49FDB7C3E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CDC74D-1E57-5242-8F0A-BDB3CD493AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37660" yWindow="2020" windowWidth="27240" windowHeight="15340" xr2:uid="{21360A5B-4DB1-C442-848F-3E0AFBE9ABD6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6931" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7437" uniqueCount="493">
   <si>
     <t>pesquisador</t>
   </si>
@@ -1495,13 +1495,25 @@
     <t>Adriana Aparecida de Lima Terçariol</t>
   </si>
   <si>
-    <t>Indefinido 1</t>
-  </si>
-  <si>
-    <t>Indefinido 2</t>
-  </si>
-  <si>
     <t>Não Identificado</t>
+  </si>
+  <si>
+    <t>Estilo de Uso A - Uso Participativo no Espaço Virtual e Estilo de Uso B - Busca e Pesquisa no Espaço Virtual e Estilo de Uso C - Estruturação e Planejamento no Espaço Virtual e Estilo de Uso D - Ação Concreta e Produção no Espaço Virtual</t>
+  </si>
+  <si>
+    <t>Estilo de Uso A - Uso Participativo no Espaço Virtual e Estilo de Uso B - Busca e Pesquisa no Espaço Virtual e Estilo de Uso D - Ação Concreta e Produção no Espaço Virtual</t>
+  </si>
+  <si>
+    <t>Estilo de Uso C - Estruturação e Planejamento no Espaço Virtual e Estilo de Uso D - Ação Concreta e Produção no Espaço Virtual</t>
+  </si>
+  <si>
+    <t>Estilo de Uso B - Busca e Pesquisa no Espaço Virtual e Estilo de Uso C - Estruturação e Planejamento no Espaço Virtual e Estilo de Uso D - Ação Concreta e Produção no Espaço Virtual</t>
+  </si>
+  <si>
+    <t>Daniela Melaré Vieira Barros</t>
+  </si>
+  <si>
+    <t>Daniela Melaré Vieira Barros Vieira Barros</t>
   </si>
 </sst>
 </file>
@@ -1878,8 +1890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8413DFF8-20A4-4647-A51B-ED7D3096F3AB}">
   <dimension ref="A1:F1412"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A621" workbookViewId="0">
-      <selection activeCell="E638" sqref="E638"/>
+    <sheetView tabSelected="1" topLeftCell="A798" workbookViewId="0">
+      <selection activeCell="A819" sqref="A819"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17107,7 +17119,7 @@
         <v>479</v>
       </c>
       <c r="F789" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="790" spans="1:6" x14ac:dyDescent="0.2">
@@ -17671,8 +17683,8 @@
       </c>
     </row>
     <row r="818" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A818" t="s">
-        <v>486</v>
+      <c r="A818" s="4" t="s">
+        <v>492</v>
       </c>
       <c r="B818" t="s">
         <v>14</v>
@@ -17683,10 +17695,13 @@
       <c r="E818" t="s">
         <v>476</v>
       </c>
+      <c r="F818" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="819" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A819" t="s">
-        <v>486</v>
+      <c r="A819" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B819" t="s">
         <v>14</v>
@@ -17694,10 +17709,13 @@
       <c r="C819" t="s">
         <v>73</v>
       </c>
+      <c r="F819" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="820" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A820" t="s">
-        <v>486</v>
+      <c r="A820" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B820" t="s">
         <v>14</v>
@@ -17705,10 +17723,13 @@
       <c r="C820" t="s">
         <v>73</v>
       </c>
+      <c r="F820" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="821" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A821" t="s">
-        <v>486</v>
+      <c r="A821" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B821" t="s">
         <v>14</v>
@@ -17716,10 +17737,13 @@
       <c r="C821" t="s">
         <v>73</v>
       </c>
+      <c r="F821" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="822" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A822" t="s">
-        <v>486</v>
+      <c r="A822" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B822" t="s">
         <v>14</v>
@@ -17730,10 +17754,13 @@
       <c r="E822" t="s">
         <v>476</v>
       </c>
+      <c r="F822" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="823" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A823" t="s">
-        <v>486</v>
+      <c r="A823" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B823" t="s">
         <v>14</v>
@@ -17744,10 +17771,13 @@
       <c r="E823" t="s">
         <v>476</v>
       </c>
+      <c r="F823" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="824" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A824" t="s">
-        <v>486</v>
+      <c r="A824" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B824" t="s">
         <v>14</v>
@@ -17758,10 +17788,13 @@
       <c r="E824" t="s">
         <v>479</v>
       </c>
+      <c r="F824" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="825" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A825" t="s">
-        <v>486</v>
+      <c r="A825" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B825" t="s">
         <v>14</v>
@@ -17772,10 +17805,13 @@
       <c r="E825" t="s">
         <v>477</v>
       </c>
+      <c r="F825" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="826" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A826" t="s">
-        <v>486</v>
+      <c r="A826" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B826" t="s">
         <v>14</v>
@@ -17786,10 +17822,13 @@
       <c r="E826" t="s">
         <v>479</v>
       </c>
+      <c r="F826" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="827" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A827" t="s">
-        <v>486</v>
+      <c r="A827" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B827" t="s">
         <v>14</v>
@@ -17800,10 +17839,13 @@
       <c r="E827" t="s">
         <v>476</v>
       </c>
+      <c r="F827" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="828" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A828" t="s">
-        <v>486</v>
+      <c r="A828" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B828" t="s">
         <v>14</v>
@@ -17814,10 +17856,13 @@
       <c r="E828" t="s">
         <v>479</v>
       </c>
+      <c r="F828" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="829" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A829" t="s">
-        <v>486</v>
+      <c r="A829" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B829" t="s">
         <v>14</v>
@@ -17828,10 +17873,13 @@
       <c r="E829" t="s">
         <v>475</v>
       </c>
+      <c r="F829" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="830" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A830" t="s">
-        <v>486</v>
+      <c r="A830" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B830" t="s">
         <v>14</v>
@@ -17842,10 +17890,13 @@
       <c r="E830" t="s">
         <v>476</v>
       </c>
+      <c r="F830" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="831" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A831" t="s">
-        <v>486</v>
+      <c r="A831" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B831" t="s">
         <v>14</v>
@@ -17856,10 +17907,13 @@
       <c r="E831" t="s">
         <v>477</v>
       </c>
+      <c r="F831" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="832" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A832" t="s">
-        <v>486</v>
+      <c r="A832" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B832" t="s">
         <v>14</v>
@@ -17870,10 +17924,13 @@
       <c r="E832" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="833" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A833" t="s">
-        <v>486</v>
+      <c r="F832" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="833" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A833" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B833" t="s">
         <v>14</v>
@@ -17884,10 +17941,13 @@
       <c r="E833" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="834" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A834" t="s">
-        <v>486</v>
+      <c r="F833" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="834" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A834" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B834" t="s">
         <v>14</v>
@@ -17898,10 +17958,13 @@
       <c r="E834" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="835" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A835" t="s">
-        <v>486</v>
+      <c r="F834" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="835" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A835" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B835" t="s">
         <v>14</v>
@@ -17912,10 +17975,13 @@
       <c r="E835" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="836" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A836" t="s">
-        <v>486</v>
+      <c r="F835" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="836" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A836" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B836" t="s">
         <v>14</v>
@@ -17926,10 +17992,13 @@
       <c r="E836" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="837" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A837" t="s">
-        <v>486</v>
+      <c r="F836" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="837" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A837" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B837" t="s">
         <v>14</v>
@@ -17940,10 +18009,13 @@
       <c r="E837" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="838" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A838" t="s">
-        <v>486</v>
+      <c r="F837" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="838" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A838" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B838" t="s">
         <v>14</v>
@@ -17954,10 +18026,13 @@
       <c r="E838" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="839" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A839" t="s">
-        <v>486</v>
+      <c r="F838" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="839" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A839" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B839" t="s">
         <v>16</v>
@@ -17968,10 +18043,13 @@
       <c r="E839" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="840" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A840" t="s">
-        <v>486</v>
+      <c r="F839" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="840" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A840" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B840" t="s">
         <v>16</v>
@@ -17982,10 +18060,13 @@
       <c r="E840" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="841" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A841" t="s">
-        <v>486</v>
+      <c r="F840" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="841" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A841" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B841" t="s">
         <v>16</v>
@@ -17993,10 +18074,13 @@
       <c r="C841" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="842" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A842" t="s">
-        <v>486</v>
+      <c r="F841" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="842" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A842" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B842" t="s">
         <v>16</v>
@@ -18007,10 +18091,13 @@
       <c r="E842" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="843" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A843" t="s">
-        <v>486</v>
+      <c r="F842" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="843" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A843" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B843" t="s">
         <v>16</v>
@@ -18021,10 +18108,13 @@
       <c r="E843" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="844" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A844" t="s">
-        <v>486</v>
+      <c r="F843" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="844" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A844" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B844" t="s">
         <v>16</v>
@@ -18035,10 +18125,13 @@
       <c r="E844" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="845" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A845" t="s">
-        <v>486</v>
+      <c r="F844" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="845" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A845" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B845" t="s">
         <v>16</v>
@@ -18049,10 +18142,13 @@
       <c r="E845" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="846" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A846" t="s">
-        <v>486</v>
+      <c r="F845" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="846" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A846" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B846" t="s">
         <v>16</v>
@@ -18063,10 +18159,13 @@
       <c r="E846" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="847" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A847" t="s">
-        <v>486</v>
+      <c r="F846" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="847" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A847" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B847" t="s">
         <v>16</v>
@@ -18077,10 +18176,13 @@
       <c r="E847" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="848" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A848" t="s">
-        <v>486</v>
+      <c r="F847" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="848" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A848" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B848" t="s">
         <v>16</v>
@@ -18091,10 +18193,13 @@
       <c r="E848" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="849" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A849" t="s">
-        <v>486</v>
+      <c r="F848" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="849" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A849" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B849" t="s">
         <v>16</v>
@@ -18105,10 +18210,13 @@
       <c r="E849" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="850" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A850" t="s">
-        <v>486</v>
+      <c r="F849" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="850" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A850" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B850" t="s">
         <v>16</v>
@@ -18119,10 +18227,13 @@
       <c r="E850" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="851" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A851" t="s">
-        <v>486</v>
+      <c r="F850" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="851" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A851" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B851" t="s">
         <v>17</v>
@@ -18133,10 +18244,13 @@
       <c r="E851" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="852" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A852" t="s">
-        <v>486</v>
+      <c r="F851" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="852" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A852" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B852" t="s">
         <v>17</v>
@@ -18147,10 +18261,13 @@
       <c r="E852" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="853" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A853" t="s">
-        <v>486</v>
+      <c r="F852" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="853" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A853" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B853" t="s">
         <v>17</v>
@@ -18161,10 +18278,13 @@
       <c r="E853" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="854" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A854" t="s">
-        <v>486</v>
+      <c r="F853" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="854" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A854" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B854" t="s">
         <v>17</v>
@@ -18175,10 +18295,13 @@
       <c r="E854" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="855" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A855" t="s">
-        <v>486</v>
+      <c r="F854" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="855" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A855" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B855" t="s">
         <v>18</v>
@@ -18189,10 +18312,13 @@
       <c r="E855" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="856" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A856" t="s">
-        <v>486</v>
+      <c r="F855" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="856" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A856" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B856" t="s">
         <v>18</v>
@@ -18203,10 +18329,13 @@
       <c r="E856" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="857" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A857" t="s">
-        <v>486</v>
+      <c r="F856" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="857" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A857" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B857" t="s">
         <v>18</v>
@@ -18217,10 +18346,13 @@
       <c r="E857" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="858" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A858" t="s">
-        <v>486</v>
+      <c r="F857" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="858" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A858" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B858" t="s">
         <v>18</v>
@@ -18231,10 +18363,13 @@
       <c r="E858" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="859" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A859" t="s">
-        <v>486</v>
+      <c r="F858" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="859" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A859" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B859" t="s">
         <v>18</v>
@@ -18245,10 +18380,13 @@
       <c r="E859" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="860" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A860" t="s">
-        <v>486</v>
+      <c r="F859" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="860" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A860" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B860" t="s">
         <v>18</v>
@@ -18259,10 +18397,13 @@
       <c r="E860" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="861" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A861" t="s">
-        <v>486</v>
+      <c r="F860" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="861" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A861" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B861" t="s">
         <v>18</v>
@@ -18273,10 +18414,13 @@
       <c r="E861" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="862" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A862" t="s">
-        <v>486</v>
+      <c r="F861" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="862" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A862" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B862" t="s">
         <v>18</v>
@@ -18287,10 +18431,13 @@
       <c r="E862" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="863" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A863" t="s">
-        <v>486</v>
+      <c r="F862" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="863" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A863" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B863" t="s">
         <v>19</v>
@@ -18301,10 +18448,13 @@
       <c r="E863" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="864" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A864" t="s">
-        <v>486</v>
+      <c r="F863" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="864" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A864" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B864" t="s">
         <v>19</v>
@@ -18315,10 +18465,13 @@
       <c r="E864" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="865" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A865" t="s">
-        <v>486</v>
+      <c r="F864" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="865" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A865" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B865" t="s">
         <v>20</v>
@@ -18329,10 +18482,13 @@
       <c r="E865" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="866" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A866" t="s">
-        <v>486</v>
+      <c r="F865" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="866" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A866" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B866" t="s">
         <v>20</v>
@@ -18343,10 +18499,13 @@
       <c r="E866" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="867" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A867" t="s">
-        <v>486</v>
+      <c r="F866" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="867" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A867" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B867" t="s">
         <v>22</v>
@@ -18357,10 +18516,13 @@
       <c r="E867" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="868" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A868" t="s">
-        <v>486</v>
+      <c r="F867" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="868" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A868" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B868" t="s">
         <v>22</v>
@@ -18371,10 +18533,13 @@
       <c r="E868" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="869" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A869" t="s">
-        <v>486</v>
+      <c r="F868" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="869" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A869" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B869" t="s">
         <v>22</v>
@@ -18385,10 +18550,13 @@
       <c r="E869" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="870" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A870" t="s">
-        <v>486</v>
+      <c r="F869" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="870" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A870" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B870" t="s">
         <v>22</v>
@@ -18399,10 +18567,13 @@
       <c r="E870" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="871" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A871" t="s">
-        <v>486</v>
+      <c r="F870" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="871" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A871" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B871" t="s">
         <v>22</v>
@@ -18413,10 +18584,13 @@
       <c r="E871" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="872" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A872" t="s">
-        <v>486</v>
+      <c r="F871" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="872" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A872" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B872" t="s">
         <v>22</v>
@@ -18427,10 +18601,13 @@
       <c r="E872" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="873" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A873" t="s">
-        <v>486</v>
+      <c r="F872" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="873" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A873" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B873" t="s">
         <v>22</v>
@@ -18441,10 +18618,13 @@
       <c r="E873" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="874" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A874" t="s">
-        <v>486</v>
+      <c r="F873" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="874" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A874" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B874" t="s">
         <v>23</v>
@@ -18455,10 +18635,13 @@
       <c r="E874" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="875" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A875" t="s">
-        <v>486</v>
+      <c r="F874" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="875" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A875" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B875" t="s">
         <v>23</v>
@@ -18469,10 +18652,13 @@
       <c r="E875" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="876" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A876" t="s">
-        <v>486</v>
+      <c r="F875" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="876" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A876" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B876" t="s">
         <v>23</v>
@@ -18483,10 +18669,13 @@
       <c r="E876" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="877" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A877" t="s">
-        <v>486</v>
+      <c r="F876" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="877" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A877" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B877" t="s">
         <v>24</v>
@@ -18497,10 +18686,13 @@
       <c r="E877" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="878" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A878" t="s">
-        <v>486</v>
+      <c r="F877" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="878" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A878" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B878" t="s">
         <v>24</v>
@@ -18508,10 +18700,13 @@
       <c r="C878" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="879" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A879" t="s">
-        <v>486</v>
+      <c r="F878" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="879" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A879" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B879" t="s">
         <v>24</v>
@@ -18522,10 +18717,13 @@
       <c r="E879" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="880" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A880" t="s">
-        <v>486</v>
+      <c r="F879" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="880" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A880" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B880" t="s">
         <v>24</v>
@@ -18536,10 +18734,13 @@
       <c r="E880" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="881" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A881" t="s">
-        <v>486</v>
+      <c r="F880" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="881" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A881" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B881" t="s">
         <v>24</v>
@@ -18550,10 +18751,13 @@
       <c r="E881" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="882" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A882" t="s">
-        <v>486</v>
+      <c r="F881" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="882" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A882" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B882" t="s">
         <v>24</v>
@@ -18564,10 +18768,13 @@
       <c r="E882" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="883" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A883" t="s">
-        <v>486</v>
+      <c r="F882" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="883" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A883" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B883" t="s">
         <v>24</v>
@@ -18578,10 +18785,13 @@
       <c r="E883" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="884" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A884" t="s">
-        <v>486</v>
+      <c r="F883" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="884" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A884" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B884" t="s">
         <v>130</v>
@@ -18592,10 +18802,13 @@
       <c r="E884" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="885" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A885" t="s">
-        <v>486</v>
+      <c r="F884" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="885" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A885" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B885" t="s">
         <v>131</v>
@@ -18606,10 +18819,13 @@
       <c r="E885" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="886" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A886" t="s">
-        <v>486</v>
+      <c r="F885" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="886" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A886" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B886" t="s">
         <v>26</v>
@@ -18620,10 +18836,13 @@
       <c r="E886" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="887" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A887" t="s">
-        <v>486</v>
+      <c r="F886" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="887" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A887" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B887" t="s">
         <v>26</v>
@@ -18634,10 +18853,13 @@
       <c r="E887" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="888" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A888" t="s">
-        <v>486</v>
+      <c r="F887" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="888" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A888" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B888" t="s">
         <v>26</v>
@@ -18648,10 +18870,13 @@
       <c r="E888" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="889" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A889" t="s">
-        <v>486</v>
+      <c r="F888" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="889" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A889" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B889" t="s">
         <v>27</v>
@@ -18662,10 +18887,13 @@
       <c r="E889" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="890" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A890" t="s">
-        <v>486</v>
+      <c r="F889" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="890" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A890" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B890" t="s">
         <v>27</v>
@@ -18676,10 +18904,13 @@
       <c r="E890" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="891" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A891" t="s">
-        <v>486</v>
+      <c r="F890" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="891" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A891" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B891" t="s">
         <v>27</v>
@@ -18690,10 +18921,13 @@
       <c r="E891" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="892" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A892" t="s">
-        <v>486</v>
+      <c r="F891" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="892" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A892" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B892" t="s">
         <v>27</v>
@@ -18704,10 +18938,13 @@
       <c r="E892" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="893" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A893" t="s">
-        <v>486</v>
+      <c r="F892" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="893" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A893" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B893" t="s">
         <v>28</v>
@@ -18718,10 +18955,13 @@
       <c r="E893" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="894" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A894" t="s">
-        <v>486</v>
+      <c r="F893" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="894" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A894" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B894" t="s">
         <v>28</v>
@@ -18732,10 +18972,13 @@
       <c r="E894" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="895" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A895" t="s">
-        <v>486</v>
+      <c r="F894" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="895" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A895" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B895" t="s">
         <v>28</v>
@@ -18746,10 +18989,13 @@
       <c r="E895" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="896" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A896" t="s">
-        <v>486</v>
+      <c r="F895" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="896" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A896" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B896" t="s">
         <v>28</v>
@@ -18760,10 +19006,13 @@
       <c r="E896" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="897" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A897" t="s">
-        <v>486</v>
+      <c r="F896" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="897" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A897" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B897" t="s">
         <v>28</v>
@@ -18771,10 +19020,13 @@
       <c r="C897" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="898" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A898" t="s">
-        <v>486</v>
+      <c r="F897" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="898" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A898" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B898" t="s">
         <v>28</v>
@@ -18785,10 +19037,13 @@
       <c r="E898" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="899" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A899" t="s">
-        <v>486</v>
+      <c r="F898" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="899" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A899" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B899" t="s">
         <v>132</v>
@@ -18799,10 +19054,13 @@
       <c r="E899" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="900" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A900" t="s">
-        <v>486</v>
+      <c r="F899" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="900" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A900" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B900" t="s">
         <v>31</v>
@@ -18813,10 +19071,13 @@
       <c r="E900" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="901" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A901" t="s">
-        <v>486</v>
+      <c r="F900" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="901" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A901" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B901" t="s">
         <v>31</v>
@@ -18827,10 +19088,13 @@
       <c r="E901" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="902" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A902" t="s">
-        <v>486</v>
+      <c r="F901" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="902" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A902" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B902" t="s">
         <v>31</v>
@@ -18841,10 +19105,13 @@
       <c r="E902" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="903" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A903" t="s">
-        <v>486</v>
+      <c r="F902" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="903" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A903" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B903" t="s">
         <v>133</v>
@@ -18855,10 +19122,13 @@
       <c r="E903" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="904" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A904" t="s">
-        <v>486</v>
+      <c r="F903" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="904" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A904" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B904" t="s">
         <v>134</v>
@@ -18866,10 +19136,13 @@
       <c r="C904" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="905" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A905" t="s">
-        <v>486</v>
+      <c r="F904" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="905" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A905" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B905" t="s">
         <v>35</v>
@@ -18880,10 +19153,13 @@
       <c r="E905" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="906" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A906" t="s">
-        <v>486</v>
+      <c r="F905" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="906" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A906" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B906" t="s">
         <v>135</v>
@@ -18894,10 +19170,13 @@
       <c r="E906" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="907" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A907" t="s">
-        <v>486</v>
+      <c r="F906" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="907" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A907" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B907" t="s">
         <v>136</v>
@@ -18908,10 +19187,13 @@
       <c r="E907" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="908" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A908" t="s">
-        <v>486</v>
+      <c r="F907" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="908" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A908" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B908" t="s">
         <v>137</v>
@@ -18922,10 +19204,13 @@
       <c r="E908" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="909" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A909" t="s">
-        <v>486</v>
+      <c r="F908" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="909" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A909" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B909" t="s">
         <v>38</v>
@@ -18936,10 +19221,13 @@
       <c r="E909" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="910" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A910" t="s">
-        <v>486</v>
+      <c r="F909" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="910" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A910" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B910" t="s">
         <v>138</v>
@@ -18950,10 +19238,13 @@
       <c r="E910" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="911" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A911" t="s">
-        <v>486</v>
+      <c r="F910" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="911" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A911" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B911" t="s">
         <v>139</v>
@@ -18964,10 +19255,13 @@
       <c r="E911" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="912" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A912" t="s">
-        <v>486</v>
+      <c r="F911" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="912" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A912" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B912" t="s">
         <v>139</v>
@@ -18978,10 +19272,13 @@
       <c r="E912" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="913" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A913" t="s">
-        <v>486</v>
+      <c r="F912" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="913" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A913" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B913" t="s">
         <v>140</v>
@@ -18992,10 +19289,13 @@
       <c r="E913" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="914" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A914" t="s">
-        <v>486</v>
+      <c r="F913" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="914" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A914" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B914" t="s">
         <v>141</v>
@@ -19006,10 +19306,13 @@
       <c r="E914" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="915" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A915" t="s">
-        <v>486</v>
+      <c r="F914" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="915" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A915" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B915" t="s">
         <v>142</v>
@@ -19020,10 +19323,13 @@
       <c r="E915" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="916" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A916" t="s">
-        <v>486</v>
+      <c r="F915" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="916" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A916" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B916" t="s">
         <v>143</v>
@@ -19034,10 +19340,13 @@
       <c r="E916" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="917" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A917" t="s">
-        <v>486</v>
+      <c r="F916" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="917" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A917" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B917" t="s">
         <v>144</v>
@@ -19048,10 +19357,13 @@
       <c r="E917" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="918" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A918" t="s">
-        <v>486</v>
+      <c r="F917" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="918" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A918" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B918" t="s">
         <v>145</v>
@@ -19062,10 +19374,13 @@
       <c r="E918" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="919" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A919" t="s">
-        <v>486</v>
+      <c r="F918" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="919" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A919" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B919" t="s">
         <v>146</v>
@@ -19076,10 +19391,13 @@
       <c r="E919" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="920" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A920" t="s">
-        <v>486</v>
+      <c r="F919" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="920" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A920" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B920" t="s">
         <v>147</v>
@@ -19090,10 +19408,13 @@
       <c r="E920" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="921" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A921" t="s">
-        <v>486</v>
+      <c r="F920" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="921" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A921" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B921" t="s">
         <v>148</v>
@@ -19104,10 +19425,13 @@
       <c r="E921" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="922" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A922" t="s">
-        <v>486</v>
+      <c r="F921" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="922" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A922" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B922" t="s">
         <v>149</v>
@@ -19118,10 +19442,13 @@
       <c r="E922" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="923" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A923" t="s">
-        <v>486</v>
+      <c r="F922" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="923" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A923" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B923" t="s">
         <v>150</v>
@@ -19132,10 +19459,13 @@
       <c r="E923" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="924" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A924" t="s">
-        <v>486</v>
+      <c r="F923" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="924" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A924" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B924" t="s">
         <v>151</v>
@@ -19146,10 +19476,13 @@
       <c r="E924" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="925" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A925" t="s">
-        <v>486</v>
+      <c r="F924" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="925" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A925" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B925" t="s">
         <v>152</v>
@@ -19160,10 +19493,13 @@
       <c r="E925" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="926" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A926" t="s">
-        <v>486</v>
+      <c r="F925" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="926" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A926" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B926" t="s">
         <v>153</v>
@@ -19174,10 +19510,13 @@
       <c r="E926" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="927" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A927" t="s">
-        <v>486</v>
+      <c r="F926" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="927" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A927" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B927" t="s">
         <v>154</v>
@@ -19188,10 +19527,13 @@
       <c r="E927" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="928" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A928" t="s">
-        <v>486</v>
+      <c r="F927" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="928" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A928" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B928" t="s">
         <v>155</v>
@@ -19202,10 +19544,13 @@
       <c r="E928" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="929" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A929" t="s">
-        <v>486</v>
+      <c r="F928" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="929" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A929" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B929" t="s">
         <v>156</v>
@@ -19213,10 +19558,13 @@
       <c r="C929" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="930" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A930" t="s">
-        <v>486</v>
+      <c r="F929" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="930" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A930" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B930" t="s">
         <v>157</v>
@@ -19227,10 +19575,13 @@
       <c r="E930" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="931" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A931" t="s">
-        <v>486</v>
+      <c r="F930" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="931" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A931" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B931" t="s">
         <v>157</v>
@@ -19241,10 +19592,13 @@
       <c r="E931" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="932" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A932" t="s">
-        <v>486</v>
+      <c r="F931" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="932" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A932" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B932" t="s">
         <v>158</v>
@@ -19255,10 +19609,13 @@
       <c r="E932" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="933" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A933" t="s">
-        <v>486</v>
+      <c r="F932" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="933" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A933" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B933" t="s">
         <v>159</v>
@@ -19269,10 +19626,13 @@
       <c r="E933" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="934" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A934" t="s">
-        <v>486</v>
+      <c r="F933" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="934" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A934" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B934" t="s">
         <v>160</v>
@@ -19283,10 +19643,13 @@
       <c r="E934" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="935" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A935" t="s">
-        <v>486</v>
+      <c r="F934" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="935" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A935" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B935" t="s">
         <v>161</v>
@@ -19297,10 +19660,13 @@
       <c r="E935" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="936" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A936" t="s">
-        <v>486</v>
+      <c r="F935" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="936" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A936" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B936" t="s">
         <v>161</v>
@@ -19311,10 +19677,13 @@
       <c r="E936" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="937" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A937" t="s">
-        <v>486</v>
+      <c r="F936" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="937" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A937" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B937" t="s">
         <v>162</v>
@@ -19325,10 +19694,13 @@
       <c r="E937" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="938" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A938" t="s">
-        <v>486</v>
+      <c r="F937" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="938" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A938" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B938" t="s">
         <v>163</v>
@@ -19339,10 +19711,13 @@
       <c r="E938" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="939" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A939" t="s">
-        <v>486</v>
+      <c r="F938" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="939" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A939" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B939" t="s">
         <v>164</v>
@@ -19353,10 +19728,13 @@
       <c r="E939" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="940" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A940" t="s">
-        <v>486</v>
+      <c r="F939" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="940" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A940" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B940" t="s">
         <v>165</v>
@@ -19364,10 +19742,13 @@
       <c r="C940" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="941" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A941" t="s">
-        <v>486</v>
+      <c r="F940" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="941" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A941" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B941" t="s">
         <v>166</v>
@@ -19378,10 +19759,13 @@
       <c r="E941" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="942" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A942" t="s">
-        <v>486</v>
+      <c r="F941" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="942" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A942" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B942" t="s">
         <v>44</v>
@@ -19392,10 +19776,13 @@
       <c r="E942" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="943" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A943" t="s">
-        <v>486</v>
+      <c r="F942" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="943" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A943" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B943" t="s">
         <v>167</v>
@@ -19406,10 +19793,13 @@
       <c r="E943" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="944" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A944" t="s">
-        <v>486</v>
+      <c r="F943" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="944" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A944" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B944" t="s">
         <v>168</v>
@@ -19420,10 +19810,13 @@
       <c r="E944" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="945" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A945" t="s">
-        <v>486</v>
+      <c r="F944" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="945" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A945" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B945" t="s">
         <v>169</v>
@@ -19434,10 +19827,13 @@
       <c r="E945" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="946" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A946" t="s">
-        <v>486</v>
+      <c r="F945" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="946" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A946" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B946" t="s">
         <v>170</v>
@@ -19448,10 +19844,13 @@
       <c r="E946" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="947" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A947" t="s">
-        <v>486</v>
+      <c r="F946" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="947" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A947" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B947" t="s">
         <v>171</v>
@@ -19462,10 +19861,13 @@
       <c r="E947" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="948" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A948" t="s">
-        <v>486</v>
+      <c r="F947" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="948" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A948" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B948" t="s">
         <v>172</v>
@@ -19476,10 +19878,13 @@
       <c r="E948" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="949" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A949" t="s">
-        <v>486</v>
+      <c r="F948" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="949" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A949" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B949" t="s">
         <v>173</v>
@@ -19490,10 +19895,13 @@
       <c r="E949" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="950" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A950" t="s">
-        <v>486</v>
+      <c r="F949" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="950" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A950" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B950" t="s">
         <v>174</v>
@@ -19504,10 +19912,13 @@
       <c r="E950" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="951" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A951" t="s">
-        <v>486</v>
+      <c r="F950" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="951" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A951" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B951" t="s">
         <v>175</v>
@@ -19518,10 +19929,13 @@
       <c r="E951" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="952" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A952" t="s">
-        <v>486</v>
+      <c r="F951" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="952" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A952" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B952" t="s">
         <v>175</v>
@@ -19532,10 +19946,13 @@
       <c r="E952" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="953" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A953" t="s">
-        <v>486</v>
+      <c r="F952" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="953" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A953" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B953" t="s">
         <v>176</v>
@@ -19546,10 +19963,13 @@
       <c r="E953" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="954" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A954" t="s">
-        <v>486</v>
+      <c r="F953" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="954" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A954" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B954" t="s">
         <v>176</v>
@@ -19560,10 +19980,13 @@
       <c r="E954" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="955" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A955" t="s">
-        <v>486</v>
+      <c r="F954" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="955" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A955" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B955" t="s">
         <v>176</v>
@@ -19574,10 +19997,13 @@
       <c r="E955" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="956" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A956" t="s">
-        <v>486</v>
+      <c r="F955" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="956" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A956" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B956" t="s">
         <v>177</v>
@@ -19588,10 +20014,13 @@
       <c r="E956" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="957" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A957" t="s">
-        <v>486</v>
+      <c r="F956" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="957" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A957" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B957" t="s">
         <v>177</v>
@@ -19602,10 +20031,13 @@
       <c r="E957" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="958" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A958" t="s">
-        <v>486</v>
+      <c r="F957" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="958" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A958" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B958" t="s">
         <v>178</v>
@@ -19616,10 +20048,13 @@
       <c r="E958" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="959" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A959" t="s">
-        <v>486</v>
+      <c r="F958" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="959" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A959" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B959" t="s">
         <v>179</v>
@@ -19630,10 +20065,13 @@
       <c r="E959" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="960" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A960" t="s">
-        <v>486</v>
+      <c r="F959" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="960" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A960" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B960" t="s">
         <v>179</v>
@@ -19644,10 +20082,13 @@
       <c r="E960" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="961" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A961" t="s">
-        <v>486</v>
+      <c r="F960" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="961" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A961" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B961" t="s">
         <v>180</v>
@@ -19658,10 +20099,13 @@
       <c r="E961" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="962" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A962" t="s">
-        <v>486</v>
+      <c r="F961" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="962" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A962" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B962" t="s">
         <v>181</v>
@@ -19672,10 +20116,13 @@
       <c r="E962" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="963" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A963" t="s">
-        <v>486</v>
+      <c r="F962" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="963" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A963" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B963" t="s">
         <v>182</v>
@@ -19686,10 +20133,13 @@
       <c r="E963" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="964" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A964" t="s">
-        <v>486</v>
+      <c r="F963" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="964" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A964" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B964" t="s">
         <v>183</v>
@@ -19700,10 +20150,13 @@
       <c r="E964" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="965" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A965" t="s">
-        <v>486</v>
+      <c r="F964" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="965" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A965" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B965" t="s">
         <v>183</v>
@@ -19714,10 +20167,13 @@
       <c r="E965" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="966" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A966" t="s">
-        <v>486</v>
+      <c r="F965" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="966" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A966" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B966" t="s">
         <v>184</v>
@@ -19728,10 +20184,13 @@
       <c r="E966" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="967" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A967" t="s">
-        <v>486</v>
+      <c r="F966" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="967" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A967" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B967" t="s">
         <v>185</v>
@@ -19742,10 +20201,13 @@
       <c r="E967" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="968" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A968" t="s">
-        <v>486</v>
+      <c r="F967" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="968" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A968" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B968" t="s">
         <v>186</v>
@@ -19753,10 +20215,13 @@
       <c r="C968" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="969" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A969" t="s">
-        <v>486</v>
+      <c r="F968" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="969" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A969" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B969" t="s">
         <v>187</v>
@@ -19767,10 +20232,13 @@
       <c r="E969" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="970" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A970" t="s">
-        <v>486</v>
+      <c r="F969" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="970" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A970" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B970" t="s">
         <v>188</v>
@@ -19781,10 +20249,13 @@
       <c r="E970" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="971" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A971" t="s">
-        <v>486</v>
+      <c r="F970" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="971" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A971" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B971" t="s">
         <v>189</v>
@@ -19795,10 +20266,13 @@
       <c r="E971" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="972" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A972" t="s">
-        <v>486</v>
+      <c r="F971" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="972" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A972" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B972" t="s">
         <v>190</v>
@@ -19806,10 +20280,13 @@
       <c r="C972" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="973" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A973" t="s">
-        <v>486</v>
+      <c r="F972" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="973" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A973" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B973" t="s">
         <v>190</v>
@@ -19817,10 +20294,13 @@
       <c r="C973" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="974" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A974" t="s">
-        <v>486</v>
+      <c r="F973" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="974" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A974" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B974" t="s">
         <v>191</v>
@@ -19831,10 +20311,13 @@
       <c r="E974" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="975" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A975" t="s">
-        <v>486</v>
+      <c r="F974" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="975" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A975" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B975" t="s">
         <v>192</v>
@@ -19845,10 +20328,13 @@
       <c r="E975" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="976" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A976" t="s">
-        <v>486</v>
+      <c r="F975" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="976" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A976" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B976" t="s">
         <v>193</v>
@@ -19859,10 +20345,13 @@
       <c r="E976" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="977" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A977" t="s">
-        <v>486</v>
+      <c r="F976" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="977" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A977" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B977" t="s">
         <v>193</v>
@@ -19873,10 +20362,13 @@
       <c r="E977" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="978" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A978" t="s">
-        <v>486</v>
+      <c r="F977" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="978" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A978" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B978" t="s">
         <v>194</v>
@@ -19887,10 +20379,13 @@
       <c r="E978" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="979" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A979" t="s">
-        <v>486</v>
+      <c r="F978" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="979" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A979" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B979" t="s">
         <v>195</v>
@@ -19901,10 +20396,13 @@
       <c r="E979" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="980" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A980" t="s">
-        <v>486</v>
+      <c r="F979" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="980" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A980" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B980" t="s">
         <v>196</v>
@@ -19915,10 +20413,13 @@
       <c r="E980" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="981" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A981" t="s">
-        <v>486</v>
+      <c r="F980" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="981" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A981" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B981" t="s">
         <v>196</v>
@@ -19929,10 +20430,13 @@
       <c r="E981" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="982" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A982" t="s">
-        <v>486</v>
+      <c r="F981" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="982" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A982" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B982" t="s">
         <v>197</v>
@@ -19943,10 +20447,13 @@
       <c r="E982" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="983" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A983" t="s">
-        <v>486</v>
+      <c r="F982" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="983" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A983" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B983" t="s">
         <v>198</v>
@@ -19957,10 +20464,13 @@
       <c r="E983" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="984" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A984" t="s">
-        <v>486</v>
+      <c r="F983" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="984" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A984" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B984" t="s">
         <v>198</v>
@@ -19971,10 +20481,13 @@
       <c r="E984" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="985" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A985" t="s">
-        <v>486</v>
+      <c r="F984" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="985" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A985" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B985" t="s">
         <v>53</v>
@@ -19982,10 +20495,13 @@
       <c r="C985" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="986" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A986" t="s">
-        <v>486</v>
+      <c r="F985" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="986" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A986" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B986" t="s">
         <v>199</v>
@@ -19996,10 +20512,13 @@
       <c r="E986" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="987" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A987" t="s">
-        <v>486</v>
+      <c r="F986" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="987" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A987" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B987" t="s">
         <v>199</v>
@@ -20010,10 +20529,13 @@
       <c r="E987" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="988" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A988" t="s">
-        <v>486</v>
+      <c r="F987" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="988" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A988" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B988" t="s">
         <v>199</v>
@@ -20024,10 +20546,13 @@
       <c r="E988" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="989" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A989" t="s">
-        <v>486</v>
+      <c r="F988" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="989" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A989" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B989" t="s">
         <v>199</v>
@@ -20038,10 +20563,13 @@
       <c r="E989" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="990" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A990" t="s">
-        <v>486</v>
+      <c r="F989" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="990" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A990" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B990" t="s">
         <v>199</v>
@@ -20052,10 +20580,13 @@
       <c r="E990" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="991" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A991" t="s">
-        <v>486</v>
+      <c r="F990" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="991" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A991" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B991" t="s">
         <v>199</v>
@@ -20066,10 +20597,13 @@
       <c r="E991" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="992" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A992" t="s">
-        <v>486</v>
+      <c r="F991" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="992" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A992" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B992" t="s">
         <v>200</v>
@@ -20080,10 +20614,13 @@
       <c r="E992" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="993" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A993" t="s">
-        <v>486</v>
+      <c r="F992" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="993" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A993" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B993" t="s">
         <v>200</v>
@@ -20094,10 +20631,13 @@
       <c r="E993" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="994" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A994" t="s">
-        <v>486</v>
+      <c r="F993" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="994" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A994" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B994" t="s">
         <v>200</v>
@@ -20108,10 +20648,13 @@
       <c r="E994" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="995" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A995" t="s">
-        <v>486</v>
+      <c r="F994" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="995" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A995" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B995" t="s">
         <v>201</v>
@@ -20122,10 +20665,13 @@
       <c r="E995" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="996" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A996" t="s">
-        <v>486</v>
+      <c r="F995" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="996" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A996" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B996" t="s">
         <v>201</v>
@@ -20136,10 +20682,13 @@
       <c r="E996" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="997" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A997" t="s">
-        <v>486</v>
+      <c r="F996" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="997" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A997" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B997" t="s">
         <v>202</v>
@@ -20150,10 +20699,13 @@
       <c r="E997" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="998" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A998" t="s">
-        <v>486</v>
+      <c r="F997" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="998" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A998" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B998" t="s">
         <v>202</v>
@@ -20164,10 +20716,13 @@
       <c r="E998" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="999" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A999" t="s">
-        <v>486</v>
+      <c r="F998" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="999" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A999" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B999" t="s">
         <v>203</v>
@@ -20178,10 +20733,13 @@
       <c r="E999" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1000" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1000" t="s">
-        <v>486</v>
+      <c r="F999" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1000" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1000" t="s">
         <v>203</v>
@@ -20192,10 +20750,13 @@
       <c r="E1000" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1001" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1001" t="s">
-        <v>486</v>
+      <c r="F1000" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1001" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1001" t="s">
         <v>204</v>
@@ -20206,10 +20767,13 @@
       <c r="E1001" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="1002" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1002" t="s">
-        <v>486</v>
+      <c r="F1001" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1002" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1002" t="s">
         <v>205</v>
@@ -20220,10 +20784,13 @@
       <c r="E1002" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1003" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1003" t="s">
-        <v>486</v>
+      <c r="F1002" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1003" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1003" t="s">
         <v>205</v>
@@ -20234,10 +20801,13 @@
       <c r="E1003" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1004" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1004" t="s">
-        <v>486</v>
+      <c r="F1003" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1004" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1004" t="s">
         <v>206</v>
@@ -20248,10 +20818,13 @@
       <c r="E1004" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1005" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1005" t="s">
-        <v>486</v>
+      <c r="F1004" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1005" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1005" t="s">
         <v>206</v>
@@ -20262,10 +20835,13 @@
       <c r="E1005" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1006" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1006" t="s">
-        <v>486</v>
+      <c r="F1005" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1006" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1006" t="s">
         <v>207</v>
@@ -20276,10 +20852,13 @@
       <c r="E1006" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1007" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1007" t="s">
-        <v>486</v>
+      <c r="F1006" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1007" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1007" t="s">
         <v>207</v>
@@ -20287,10 +20866,13 @@
       <c r="C1007" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="1008" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1008" t="s">
-        <v>486</v>
+      <c r="F1007" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1008" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1008" t="s">
         <v>208</v>
@@ -20301,10 +20883,13 @@
       <c r="E1008" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="1009" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1009" t="s">
-        <v>486</v>
+      <c r="F1008" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1009" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1009" t="s">
         <v>209</v>
@@ -20315,10 +20900,13 @@
       <c r="E1009" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1010" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1010" t="s">
-        <v>486</v>
+      <c r="F1009" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1010" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1010" t="s">
         <v>210</v>
@@ -20329,10 +20917,13 @@
       <c r="E1010" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1011" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1011" t="s">
-        <v>486</v>
+      <c r="F1010" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1011" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1011" t="s">
         <v>211</v>
@@ -20343,10 +20934,13 @@
       <c r="E1011" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1012" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1012" t="s">
-        <v>486</v>
+      <c r="F1011" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1012" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1012" t="s">
         <v>212</v>
@@ -20354,10 +20948,13 @@
       <c r="C1012" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="1013" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1013" t="s">
-        <v>486</v>
+      <c r="F1012" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1013" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1013" t="s">
         <v>213</v>
@@ -20368,10 +20965,13 @@
       <c r="E1013" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1014" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1014" t="s">
-        <v>486</v>
+      <c r="F1013" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1014" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1014" t="s">
         <v>214</v>
@@ -20382,10 +20982,13 @@
       <c r="E1014" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1015" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1015" t="s">
-        <v>486</v>
+      <c r="F1014" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1015" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1015" t="s">
         <v>215</v>
@@ -20396,10 +20999,13 @@
       <c r="E1015" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="1016" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1016" t="s">
-        <v>486</v>
+      <c r="F1015" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1016" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1016" t="s">
         <v>216</v>
@@ -20410,10 +21016,13 @@
       <c r="E1016" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1017" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1017" t="s">
-        <v>486</v>
+      <c r="F1016" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1017" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1017" t="s">
         <v>217</v>
@@ -20424,10 +21033,13 @@
       <c r="E1017" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="1018" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1018" t="s">
-        <v>486</v>
+      <c r="F1017" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1018" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1018" t="s">
         <v>218</v>
@@ -20438,10 +21050,13 @@
       <c r="E1018" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="1019" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1019" t="s">
-        <v>486</v>
+      <c r="F1018" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1019" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1019" t="s">
         <v>219</v>
@@ -20452,10 +21067,13 @@
       <c r="E1019" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1020" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1020" t="s">
-        <v>486</v>
+      <c r="F1019" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1020" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1020" t="s">
         <v>219</v>
@@ -20466,10 +21084,13 @@
       <c r="E1020" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1021" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1021" t="s">
-        <v>486</v>
+      <c r="F1020" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1021" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1021" t="s">
         <v>220</v>
@@ -20480,10 +21101,13 @@
       <c r="E1021" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1022" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1022" t="s">
-        <v>486</v>
+      <c r="F1021" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1022" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1022" t="s">
         <v>220</v>
@@ -20494,10 +21118,13 @@
       <c r="E1022" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1023" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1023" t="s">
-        <v>486</v>
+      <c r="F1022" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1023" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1023" t="s">
         <v>221</v>
@@ -20508,10 +21135,13 @@
       <c r="E1023" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1024" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1024" t="s">
-        <v>486</v>
+      <c r="F1023" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1024" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1024" t="s">
         <v>222</v>
@@ -20519,10 +21149,13 @@
       <c r="C1024" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="1025" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1025" t="s">
-        <v>486</v>
+      <c r="F1024" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1025" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1025" t="s">
         <v>223</v>
@@ -20533,10 +21166,13 @@
       <c r="E1025" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1026" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1026" t="s">
-        <v>486</v>
+      <c r="F1025" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1026" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1026" t="s">
         <v>224</v>
@@ -20547,10 +21183,13 @@
       <c r="E1026" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1027" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1027" t="s">
-        <v>486</v>
+      <c r="F1026" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1027" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1027" t="s">
         <v>224</v>
@@ -20561,10 +21200,13 @@
       <c r="E1027" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1028" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1028" t="s">
-        <v>486</v>
+      <c r="F1027" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1028" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1028" t="s">
         <v>224</v>
@@ -20575,10 +21217,13 @@
       <c r="E1028" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1029" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1029" t="s">
-        <v>486</v>
+      <c r="F1028" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1029" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1029" t="s">
         <v>224</v>
@@ -20589,10 +21234,13 @@
       <c r="E1029" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1030" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1030" t="s">
-        <v>486</v>
+      <c r="F1029" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1030" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1030" t="s">
         <v>225</v>
@@ -20603,10 +21251,13 @@
       <c r="E1030" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1031" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1031" t="s">
-        <v>486</v>
+      <c r="F1030" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1031" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1031" t="s">
         <v>225</v>
@@ -20617,10 +21268,13 @@
       <c r="E1031" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1032" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1032" t="s">
-        <v>486</v>
+      <c r="F1031" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1032" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1032" t="s">
         <v>226</v>
@@ -20631,10 +21285,13 @@
       <c r="E1032" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1033" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1033" t="s">
-        <v>486</v>
+      <c r="F1032" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1033" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1033" t="s">
         <v>227</v>
@@ -20645,10 +21302,13 @@
       <c r="E1033" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="1034" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1034" t="s">
-        <v>486</v>
+      <c r="F1033" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1034" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1034" t="s">
         <v>228</v>
@@ -20659,10 +21319,13 @@
       <c r="E1034" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1035" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1035" t="s">
-        <v>486</v>
+      <c r="F1034" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1035" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1035" t="s">
         <v>229</v>
@@ -20673,10 +21336,13 @@
       <c r="E1035" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="1036" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1036" t="s">
-        <v>486</v>
+      <c r="F1035" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1036" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1036" t="s">
         <v>230</v>
@@ -20684,10 +21350,13 @@
       <c r="C1036" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="1037" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1037" t="s">
-        <v>486</v>
+      <c r="F1036" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1037" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1037" t="s">
         <v>231</v>
@@ -20698,10 +21367,13 @@
       <c r="E1037" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1038" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1038" t="s">
-        <v>486</v>
+      <c r="F1037" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1038" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1038" t="s">
         <v>232</v>
@@ -20712,10 +21384,13 @@
       <c r="E1038" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1039" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1039" t="s">
-        <v>486</v>
+      <c r="F1038" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1039" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1039" t="s">
         <v>233</v>
@@ -20726,10 +21401,13 @@
       <c r="E1039" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="1040" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1040" t="s">
-        <v>486</v>
+      <c r="F1039" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1040" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1040" t="s">
         <v>234</v>
@@ -20740,10 +21418,13 @@
       <c r="E1040" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1041" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1041" t="s">
-        <v>486</v>
+      <c r="F1040" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1041" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1041" t="s">
         <v>235</v>
@@ -20754,10 +21435,13 @@
       <c r="E1041" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="1042" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1042" t="s">
-        <v>486</v>
+      <c r="F1041" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1042" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1042" t="s">
         <v>236</v>
@@ -20768,10 +21452,13 @@
       <c r="E1042" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1043" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1043" t="s">
-        <v>486</v>
+      <c r="F1042" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1043" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1043" t="s">
         <v>236</v>
@@ -20782,10 +21469,13 @@
       <c r="E1043" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1044" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1044" t="s">
-        <v>486</v>
+      <c r="F1043" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1044" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1044" t="s">
         <v>237</v>
@@ -20796,10 +21486,13 @@
       <c r="E1044" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1045" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1045" t="s">
-        <v>486</v>
+      <c r="F1044" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1045" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1045" t="s">
         <v>238</v>
@@ -20810,10 +21503,13 @@
       <c r="E1045" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1046" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1046" t="s">
-        <v>486</v>
+      <c r="F1045" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1046" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1046" t="s">
         <v>239</v>
@@ -20824,10 +21520,13 @@
       <c r="E1046" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1047" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1047" t="s">
-        <v>486</v>
+      <c r="F1046" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1047" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1047" t="s">
         <v>240</v>
@@ -20838,10 +21537,13 @@
       <c r="E1047" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1048" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1048" t="s">
-        <v>486</v>
+      <c r="F1047" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1048" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1048" t="s">
         <v>241</v>
@@ -20852,10 +21554,13 @@
       <c r="E1048" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1049" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1049" t="s">
-        <v>486</v>
+      <c r="F1048" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1049" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1049" t="s">
         <v>242</v>
@@ -20866,10 +21571,13 @@
       <c r="E1049" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1050" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1050" t="s">
-        <v>486</v>
+      <c r="F1049" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1050" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1050" t="s">
         <v>242</v>
@@ -20880,10 +21588,13 @@
       <c r="E1050" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="1051" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1051" t="s">
-        <v>486</v>
+      <c r="F1050" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1051" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1051" t="s">
         <v>243</v>
@@ -20894,10 +21605,13 @@
       <c r="E1051" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1052" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1052" t="s">
-        <v>486</v>
+      <c r="F1051" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1052" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1052" t="s">
         <v>244</v>
@@ -20908,10 +21622,13 @@
       <c r="E1052" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1053" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1053" t="s">
-        <v>486</v>
+      <c r="F1052" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1053" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1053" t="s">
         <v>245</v>
@@ -20922,10 +21639,13 @@
       <c r="E1053" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1054" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1054" t="s">
-        <v>486</v>
+      <c r="F1053" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1054" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1054" t="s">
         <v>246</v>
@@ -20936,10 +21656,13 @@
       <c r="E1054" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1055" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1055" t="s">
-        <v>486</v>
+      <c r="F1054" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1055" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1055" t="s">
         <v>247</v>
@@ -20950,10 +21673,13 @@
       <c r="E1055" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="1056" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1056" t="s">
-        <v>486</v>
+      <c r="F1055" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1056" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1056" t="s">
         <v>248</v>
@@ -20964,10 +21690,13 @@
       <c r="E1056" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="1057" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1057" t="s">
-        <v>486</v>
+      <c r="F1056" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1057" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1057" t="s">
         <v>249</v>
@@ -20978,10 +21707,13 @@
       <c r="E1057" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1058" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1058" t="s">
-        <v>486</v>
+      <c r="F1057" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1058" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1058" t="s">
         <v>250</v>
@@ -20992,10 +21724,13 @@
       <c r="E1058" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1059" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1059" t="s">
-        <v>486</v>
+      <c r="F1058" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1059" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1059" t="s">
         <v>251</v>
@@ -21006,10 +21741,13 @@
       <c r="E1059" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1060" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1060" t="s">
-        <v>486</v>
+      <c r="F1059" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1060" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1060" t="s">
         <v>252</v>
@@ -21020,10 +21758,13 @@
       <c r="E1060" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="1061" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1061" t="s">
-        <v>486</v>
+      <c r="F1060" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1061" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1061" t="s">
         <v>253</v>
@@ -21034,10 +21775,13 @@
       <c r="E1061" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="1062" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1062" t="s">
-        <v>486</v>
+      <c r="F1061" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1062" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1062" t="s">
         <v>254</v>
@@ -21048,10 +21792,13 @@
       <c r="E1062" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="1063" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1063" t="s">
-        <v>486</v>
+      <c r="F1062" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1063" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1063" t="s">
         <v>255</v>
@@ -21062,10 +21809,13 @@
       <c r="E1063" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1064" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1064" t="s">
-        <v>486</v>
+      <c r="F1063" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1064" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1064" t="s">
         <v>255</v>
@@ -21076,10 +21826,13 @@
       <c r="E1064" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1065" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1065" t="s">
-        <v>486</v>
+      <c r="F1064" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1065" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1065" t="s">
         <v>256</v>
@@ -21090,10 +21843,13 @@
       <c r="E1065" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="1066" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1066" t="s">
-        <v>486</v>
+      <c r="F1065" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1066" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1066" t="s">
         <v>257</v>
@@ -21101,10 +21857,13 @@
       <c r="C1066" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="1067" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1067" t="s">
-        <v>486</v>
+      <c r="F1066" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1067" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1067" t="s">
         <v>258</v>
@@ -21115,10 +21874,13 @@
       <c r="E1067" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1068" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1068" t="s">
-        <v>486</v>
+      <c r="F1067" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1068" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1068" t="s">
         <v>259</v>
@@ -21129,10 +21891,13 @@
       <c r="E1068" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="1069" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1069" t="s">
-        <v>486</v>
+      <c r="F1068" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1069" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1069" t="s">
         <v>259</v>
@@ -21143,10 +21908,13 @@
       <c r="E1069" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1070" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1070" t="s">
-        <v>486</v>
+      <c r="F1069" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1070" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1070" t="s">
         <v>259</v>
@@ -21157,10 +21925,13 @@
       <c r="E1070" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1071" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1071" t="s">
-        <v>486</v>
+      <c r="F1070" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1071" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1071" t="s">
         <v>260</v>
@@ -21171,10 +21942,13 @@
       <c r="E1071" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1072" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1072" t="s">
-        <v>486</v>
+      <c r="F1071" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1072" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1072" t="s">
         <v>261</v>
@@ -21185,10 +21959,13 @@
       <c r="E1072" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="1073" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1073" t="s">
-        <v>486</v>
+      <c r="F1072" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1073" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1073" t="s">
         <v>262</v>
@@ -21199,10 +21976,13 @@
       <c r="E1073" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="1074" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1074" t="s">
-        <v>486</v>
+      <c r="F1073" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1074" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1074" t="s">
         <v>262</v>
@@ -21213,10 +21993,13 @@
       <c r="E1074" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="1075" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1075" t="s">
-        <v>486</v>
+      <c r="F1074" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1075" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1075" t="s">
         <v>262</v>
@@ -21227,10 +22010,13 @@
       <c r="E1075" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="1076" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1076" t="s">
-        <v>486</v>
+      <c r="F1075" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1076" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1076" t="s">
         <v>263</v>
@@ -21238,10 +22024,13 @@
       <c r="C1076" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="1077" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1077" t="s">
-        <v>486</v>
+      <c r="F1076" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1077" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1077" t="s">
         <v>264</v>
@@ -21252,10 +22041,13 @@
       <c r="E1077" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1078" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1078" t="s">
-        <v>486</v>
+      <c r="F1077" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1078" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1078" t="s">
         <v>264</v>
@@ -21266,10 +22058,13 @@
       <c r="E1078" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1079" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1079" t="s">
-        <v>486</v>
+      <c r="F1078" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1079" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1079" t="s">
         <v>265</v>
@@ -21280,10 +22075,13 @@
       <c r="E1079" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1080" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1080" t="s">
-        <v>486</v>
+      <c r="F1079" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1080" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1080" t="s">
         <v>266</v>
@@ -21294,10 +22092,13 @@
       <c r="E1080" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1081" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1081" t="s">
-        <v>486</v>
+      <c r="F1080" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1081" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1081" t="s">
         <v>267</v>
@@ -21308,10 +22109,13 @@
       <c r="E1081" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1082" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1082" t="s">
-        <v>486</v>
+      <c r="F1081" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1082" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1082" t="s">
         <v>268</v>
@@ -21322,10 +22126,13 @@
       <c r="E1082" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1083" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1083" t="s">
-        <v>486</v>
+      <c r="F1082" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1083" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1083" t="s">
         <v>269</v>
@@ -21333,10 +22140,13 @@
       <c r="C1083" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="1084" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1084" t="s">
-        <v>486</v>
+      <c r="F1083" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1084" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1084" t="s">
         <v>269</v>
@@ -21347,10 +22157,13 @@
       <c r="E1084" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="1085" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1085" t="s">
-        <v>486</v>
+      <c r="F1084" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1085" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1085" t="s">
         <v>270</v>
@@ -21361,10 +22174,13 @@
       <c r="E1085" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1086" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1086" t="s">
-        <v>486</v>
+      <c r="F1085" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1086" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1086" t="s">
         <v>271</v>
@@ -21375,10 +22191,13 @@
       <c r="E1086" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1087" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1087" t="s">
-        <v>486</v>
+      <c r="F1086" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1087" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1087" t="s">
         <v>272</v>
@@ -21389,10 +22208,13 @@
       <c r="E1087" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1088" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1088" t="s">
-        <v>486</v>
+      <c r="F1087" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1088" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1088" t="s">
         <v>273</v>
@@ -21403,10 +22225,13 @@
       <c r="E1088" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="1089" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1089" t="s">
-        <v>486</v>
+      <c r="F1088" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1089" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1089" t="s">
         <v>58</v>
@@ -21417,10 +22242,13 @@
       <c r="E1089" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1090" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1090" t="s">
-        <v>486</v>
+      <c r="F1089" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1090" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1090" t="s">
         <v>274</v>
@@ -21431,10 +22259,13 @@
       <c r="E1090" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1091" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1091" t="s">
-        <v>486</v>
+      <c r="F1090" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1091" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1091" t="s">
         <v>275</v>
@@ -21445,10 +22276,13 @@
       <c r="E1091" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1092" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1092" t="s">
-        <v>486</v>
+      <c r="F1091" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1092" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1092" t="s">
         <v>275</v>
@@ -21459,10 +22293,13 @@
       <c r="E1092" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1093" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1093" t="s">
-        <v>486</v>
+      <c r="F1092" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1093" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1093" t="s">
         <v>276</v>
@@ -21473,10 +22310,13 @@
       <c r="E1093" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="1094" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1094" t="s">
-        <v>486</v>
+      <c r="F1093" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1094" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1094" t="s">
         <v>277</v>
@@ -21487,10 +22327,13 @@
       <c r="E1094" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1095" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1095" t="s">
-        <v>486</v>
+      <c r="F1094" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1095" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1095" t="s">
         <v>278</v>
@@ -21501,10 +22344,13 @@
       <c r="E1095" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="1096" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1096" t="s">
-        <v>486</v>
+      <c r="F1095" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1096" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1096" t="s">
         <v>278</v>
@@ -21515,10 +22361,13 @@
       <c r="E1096" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="1097" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1097" t="s">
-        <v>486</v>
+      <c r="F1096" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1097" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1097" t="s">
         <v>279</v>
@@ -21529,10 +22378,13 @@
       <c r="E1097" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1098" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1098" t="s">
-        <v>486</v>
+      <c r="F1097" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1098" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1098" t="s">
         <v>280</v>
@@ -21543,10 +22395,13 @@
       <c r="E1098" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1099" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1099" t="s">
-        <v>486</v>
+      <c r="F1098" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1099" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1099" t="s">
         <v>281</v>
@@ -21557,10 +22412,13 @@
       <c r="E1099" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1100" t="s">
-        <v>486</v>
+      <c r="F1099" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1100" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1100" t="s">
         <v>282</v>
@@ -21571,10 +22429,13 @@
       <c r="E1100" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1101" t="s">
-        <v>486</v>
+      <c r="F1100" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1101" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1101" t="s">
         <v>283</v>
@@ -21582,10 +22443,13 @@
       <c r="C1101" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="1102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1102" t="s">
-        <v>486</v>
+      <c r="F1101" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1102" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1102" t="s">
         <v>284</v>
@@ -21596,10 +22460,13 @@
       <c r="E1102" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="1103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1103" t="s">
-        <v>486</v>
+      <c r="F1102" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1103" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1103" t="s">
         <v>60</v>
@@ -21610,10 +22477,13 @@
       <c r="E1103" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1104" t="s">
-        <v>486</v>
+      <c r="F1103" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1104" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1104" t="s">
         <v>285</v>
@@ -21624,10 +22494,13 @@
       <c r="E1104" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1105" t="s">
-        <v>486</v>
+      <c r="F1104" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1105" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1105" t="s">
         <v>286</v>
@@ -21638,10 +22511,13 @@
       <c r="E1105" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1106" t="s">
-        <v>486</v>
+      <c r="F1105" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1106" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1106" t="s">
         <v>286</v>
@@ -21652,10 +22528,13 @@
       <c r="E1106" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1107" t="s">
-        <v>486</v>
+      <c r="F1106" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1107" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1107" t="s">
         <v>287</v>
@@ -21666,10 +22545,13 @@
       <c r="E1107" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="1108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1108" t="s">
-        <v>486</v>
+      <c r="F1107" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1108" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1108" t="s">
         <v>288</v>
@@ -21680,10 +22562,13 @@
       <c r="E1108" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1109" t="s">
-        <v>486</v>
+      <c r="F1108" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1109" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1109" t="s">
         <v>288</v>
@@ -21694,10 +22579,13 @@
       <c r="E1109" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1110" t="s">
-        <v>486</v>
+      <c r="F1109" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1110" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1110" t="s">
         <v>289</v>
@@ -21708,10 +22596,13 @@
       <c r="E1110" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="1111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1111" t="s">
-        <v>486</v>
+      <c r="F1110" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1111" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1111" t="s">
         <v>290</v>
@@ -21722,10 +22613,13 @@
       <c r="E1111" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1112" t="s">
-        <v>486</v>
+      <c r="F1111" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1112" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1112" t="s">
         <v>290</v>
@@ -21736,10 +22630,13 @@
       <c r="E1112" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1113" t="s">
-        <v>486</v>
+      <c r="F1112" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1113" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1113" t="s">
         <v>291</v>
@@ -21750,10 +22647,13 @@
       <c r="E1113" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="1114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1114" t="s">
-        <v>486</v>
+      <c r="F1113" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1114" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1114" t="s">
         <v>291</v>
@@ -21764,10 +22664,13 @@
       <c r="E1114" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1115" t="s">
-        <v>486</v>
+      <c r="F1114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1115" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1115" t="s">
         <v>291</v>
@@ -21778,10 +22681,13 @@
       <c r="E1115" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1116" t="s">
-        <v>486</v>
+      <c r="F1115" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1116" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1116" t="s">
         <v>292</v>
@@ -21792,10 +22698,13 @@
       <c r="E1116" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1117" t="s">
-        <v>486</v>
+      <c r="F1116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1117" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1117" t="s">
         <v>292</v>
@@ -21806,10 +22715,13 @@
       <c r="E1117" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1118" t="s">
-        <v>486</v>
+      <c r="F1117" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1118" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1118" t="s">
         <v>293</v>
@@ -21820,10 +22732,13 @@
       <c r="E1118" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1119" t="s">
-        <v>486</v>
+      <c r="F1118" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1119" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1119" t="s">
         <v>294</v>
@@ -21831,10 +22746,13 @@
       <c r="C1119" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="1120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1120" t="s">
-        <v>486</v>
+      <c r="F1119" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1120" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1120" t="s">
         <v>295</v>
@@ -21845,10 +22763,13 @@
       <c r="E1120" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1121" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1121" t="s">
-        <v>486</v>
+      <c r="F1120" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1121" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1121" t="s">
         <v>296</v>
@@ -21859,10 +22780,13 @@
       <c r="E1121" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1122" t="s">
-        <v>486</v>
+      <c r="F1121" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1122" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1122" t="s">
         <v>297</v>
@@ -21873,10 +22797,13 @@
       <c r="E1122" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="1123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1123" t="s">
-        <v>486</v>
+      <c r="F1122" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1123" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1123" t="s">
         <v>298</v>
@@ -21887,10 +22814,13 @@
       <c r="E1123" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1124" t="s">
-        <v>486</v>
+      <c r="F1123" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1124" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1124" t="s">
         <v>299</v>
@@ -21901,10 +22831,13 @@
       <c r="E1124" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1125" t="s">
-        <v>486</v>
+      <c r="F1124" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1125" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1125" t="s">
         <v>299</v>
@@ -21915,10 +22848,13 @@
       <c r="E1125" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="1126" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1126" t="s">
-        <v>486</v>
+      <c r="F1125" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1126" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1126" t="s">
         <v>300</v>
@@ -21929,10 +22865,13 @@
       <c r="E1126" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="1127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1127" t="s">
-        <v>486</v>
+      <c r="F1126" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1127" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1127" t="s">
         <v>301</v>
@@ -21943,10 +22882,13 @@
       <c r="E1127" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1128" t="s">
-        <v>486</v>
+      <c r="F1127" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1128" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1128" t="s">
         <v>302</v>
@@ -21957,10 +22899,13 @@
       <c r="E1128" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="1129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1129" t="s">
-        <v>486</v>
+      <c r="F1128" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1129" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1129" t="s">
         <v>303</v>
@@ -21971,10 +22916,13 @@
       <c r="E1129" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="1130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1130" t="s">
-        <v>486</v>
+      <c r="F1129" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1130" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1130" t="s">
         <v>304</v>
@@ -21985,10 +22933,13 @@
       <c r="E1130" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1131" t="s">
-        <v>486</v>
+      <c r="F1130" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1131" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1131" t="s">
         <v>305</v>
@@ -21999,10 +22950,13 @@
       <c r="E1131" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1132" t="s">
-        <v>486</v>
+      <c r="F1131" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1132" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1132" t="s">
         <v>305</v>
@@ -22013,10 +22967,13 @@
       <c r="E1132" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="1133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1133" t="s">
-        <v>486</v>
+      <c r="F1132" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1133" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1133" t="s">
         <v>306</v>
@@ -22024,10 +22981,13 @@
       <c r="C1133" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="1134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1134" t="s">
-        <v>486</v>
+      <c r="F1133" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1134" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1134" t="s">
         <v>307</v>
@@ -22035,10 +22995,13 @@
       <c r="C1134" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="1135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1135" t="s">
-        <v>486</v>
+      <c r="F1134" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1135" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1135" t="s">
         <v>308</v>
@@ -22049,10 +23012,13 @@
       <c r="E1135" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1136" t="s">
-        <v>486</v>
+      <c r="F1135" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1136" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1136" t="s">
         <v>309</v>
@@ -22063,10 +23029,13 @@
       <c r="E1136" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1137" t="s">
-        <v>486</v>
+      <c r="F1136" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1137" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1137" t="s">
         <v>310</v>
@@ -22077,10 +23046,13 @@
       <c r="E1137" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1138" t="s">
-        <v>486</v>
+      <c r="F1137" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1138" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1138" t="s">
         <v>311</v>
@@ -22091,10 +23063,13 @@
       <c r="E1138" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1139" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1139" t="s">
-        <v>486</v>
+      <c r="F1138" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1139" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1139" t="s">
         <v>311</v>
@@ -22105,10 +23080,13 @@
       <c r="E1139" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1140" t="s">
-        <v>486</v>
+      <c r="F1139" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1140" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1140" t="s">
         <v>312</v>
@@ -22119,10 +23097,13 @@
       <c r="E1140" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1141" t="s">
-        <v>486</v>
+      <c r="F1140" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1141" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1141" t="s">
         <v>312</v>
@@ -22133,10 +23114,13 @@
       <c r="E1141" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="1142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1142" t="s">
-        <v>486</v>
+      <c r="F1141" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1142" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1142" t="s">
         <v>313</v>
@@ -22147,10 +23131,13 @@
       <c r="E1142" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="1143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1143" t="s">
-        <v>486</v>
+      <c r="F1142" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1143" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1143" t="s">
         <v>313</v>
@@ -22161,10 +23148,13 @@
       <c r="E1143" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="1144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1144" t="s">
-        <v>486</v>
+      <c r="F1143" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1144" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1144" t="s">
         <v>314</v>
@@ -22175,10 +23165,13 @@
       <c r="E1144" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="1145" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1145" t="s">
-        <v>486</v>
+      <c r="F1144" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1145" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1145" t="s">
         <v>315</v>
@@ -22189,10 +23182,13 @@
       <c r="E1145" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1146" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1146" t="s">
-        <v>486</v>
+      <c r="F1145" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1146" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1146" t="s">
         <v>316</v>
@@ -22203,10 +23199,13 @@
       <c r="E1146" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1147" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1147" t="s">
-        <v>486</v>
+      <c r="F1146" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1147" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1147" t="s">
         <v>317</v>
@@ -22217,10 +23216,13 @@
       <c r="E1147" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="1148" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1148" t="s">
-        <v>486</v>
+      <c r="F1147" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1148" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1148" t="s">
         <v>318</v>
@@ -22231,10 +23233,13 @@
       <c r="E1148" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1149" t="s">
-        <v>486</v>
+      <c r="F1148" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1149" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1149" t="s">
         <v>319</v>
@@ -22245,10 +23250,13 @@
       <c r="E1149" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="1150" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1150" t="s">
-        <v>486</v>
+      <c r="F1149" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1150" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1150" t="s">
         <v>320</v>
@@ -22259,10 +23267,13 @@
       <c r="E1150" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1151" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1151" t="s">
-        <v>486</v>
+      <c r="F1150" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1151" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1151" t="s">
         <v>320</v>
@@ -22273,10 +23284,13 @@
       <c r="E1151" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1152" t="s">
-        <v>486</v>
+      <c r="F1151" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1152" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1152" t="s">
         <v>321</v>
@@ -22287,10 +23301,13 @@
       <c r="E1152" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="1153" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1153" t="s">
-        <v>486</v>
+      <c r="F1152" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1153" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1153" t="s">
         <v>322</v>
@@ -22301,10 +23318,13 @@
       <c r="E1153" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1154" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1154" t="s">
-        <v>486</v>
+      <c r="F1153" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1154" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1154" t="s">
         <v>323</v>
@@ -22315,10 +23335,13 @@
       <c r="E1154" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1155" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1155" t="s">
-        <v>486</v>
+      <c r="F1154" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1155" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1155" t="s">
         <v>324</v>
@@ -22329,10 +23352,13 @@
       <c r="E1155" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1156" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1156" t="s">
-        <v>486</v>
+      <c r="F1155" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1156" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1156" t="s">
         <v>325</v>
@@ -22343,10 +23369,13 @@
       <c r="E1156" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1157" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1157" t="s">
-        <v>486</v>
+      <c r="F1156" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1157" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1157" t="s">
         <v>326</v>
@@ -22357,10 +23386,13 @@
       <c r="E1157" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1158" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1158" t="s">
-        <v>486</v>
+      <c r="F1157" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1158" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1158" t="s">
         <v>326</v>
@@ -22371,10 +23403,13 @@
       <c r="E1158" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1159" t="s">
-        <v>486</v>
+      <c r="F1158" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1159" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1159" t="s">
         <v>327</v>
@@ -22385,10 +23420,13 @@
       <c r="E1159" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1160" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1160" t="s">
-        <v>486</v>
+      <c r="F1159" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1160" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1160" t="s">
         <v>328</v>
@@ -22399,10 +23437,13 @@
       <c r="E1160" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="1161" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1161" t="s">
-        <v>486</v>
+      <c r="F1160" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1161" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1161" t="s">
         <v>329</v>
@@ -22413,10 +23454,13 @@
       <c r="E1161" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="1162" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1162" t="s">
-        <v>486</v>
+      <c r="F1161" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1162" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1162" t="s">
         <v>330</v>
@@ -22427,10 +23471,13 @@
       <c r="E1162" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="1163" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1163" t="s">
-        <v>486</v>
+      <c r="F1162" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1163" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1163" t="s">
         <v>331</v>
@@ -22441,10 +23488,13 @@
       <c r="E1163" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="1164" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1164" t="s">
-        <v>486</v>
+      <c r="F1163" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1164" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1164" t="s">
         <v>332</v>
@@ -22455,10 +23505,13 @@
       <c r="E1164" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="1165" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1165" t="s">
-        <v>486</v>
+      <c r="F1164" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1165" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1165" t="s">
         <v>333</v>
@@ -22469,10 +23522,13 @@
       <c r="E1165" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1166" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1166" t="s">
-        <v>486</v>
+      <c r="F1165" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1166" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1166" t="s">
         <v>334</v>
@@ -22483,10 +23539,13 @@
       <c r="E1166" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="1167" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1167" t="s">
-        <v>486</v>
+      <c r="F1166" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1167" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1167" t="s">
         <v>334</v>
@@ -22497,10 +23556,13 @@
       <c r="E1167" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1168" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1168" t="s">
-        <v>486</v>
+      <c r="F1167" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1168" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1168" t="s">
         <v>335</v>
@@ -22511,10 +23573,13 @@
       <c r="E1168" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1169" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1169" t="s">
-        <v>486</v>
+      <c r="F1168" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1169" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1169" t="s">
         <v>336</v>
@@ -22525,10 +23590,13 @@
       <c r="E1169" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="1170" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1170" t="s">
-        <v>486</v>
+      <c r="F1169" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1170" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1170" t="s">
         <v>337</v>
@@ -22539,10 +23607,13 @@
       <c r="E1170" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="1171" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1171" t="s">
-        <v>486</v>
+      <c r="F1170" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1171" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1171" t="s">
         <v>338</v>
@@ -22553,10 +23624,13 @@
       <c r="E1171" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1172" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1172" t="s">
-        <v>486</v>
+      <c r="F1171" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1172" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1172" t="s">
         <v>339</v>
@@ -22567,10 +23641,13 @@
       <c r="E1172" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1173" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1173" t="s">
-        <v>486</v>
+      <c r="F1172" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1173" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1173" t="s">
         <v>340</v>
@@ -22581,10 +23658,13 @@
       <c r="E1173" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="1174" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1174" t="s">
-        <v>486</v>
+      <c r="F1173" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1174" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1174" t="s">
         <v>340</v>
@@ -22595,10 +23675,13 @@
       <c r="E1174" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="1175" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1175" t="s">
-        <v>486</v>
+      <c r="F1174" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1175" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1175" t="s">
         <v>341</v>
@@ -22609,10 +23692,13 @@
       <c r="E1175" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1176" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1176" t="s">
-        <v>486</v>
+      <c r="F1175" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1176" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1176" t="s">
         <v>342</v>
@@ -22623,10 +23709,13 @@
       <c r="E1176" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1177" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1177" t="s">
-        <v>486</v>
+      <c r="F1176" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1177" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1177" t="s">
         <v>342</v>
@@ -22637,10 +23726,13 @@
       <c r="E1177" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1178" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1178" t="s">
-        <v>486</v>
+      <c r="F1177" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1178" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1178" t="s">
         <v>343</v>
@@ -22651,10 +23743,13 @@
       <c r="E1178" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1179" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1179" t="s">
-        <v>486</v>
+      <c r="F1178" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1179" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1179" t="s">
         <v>344</v>
@@ -22665,10 +23760,13 @@
       <c r="E1179" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="1180" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1180" t="s">
-        <v>486</v>
+      <c r="F1179" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1180" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1180" t="s">
         <v>344</v>
@@ -22679,10 +23777,13 @@
       <c r="E1180" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1181" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1181" t="s">
-        <v>486</v>
+      <c r="F1180" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1181" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1181" t="s">
         <v>345</v>
@@ -22693,10 +23794,13 @@
       <c r="E1181" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="1182" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1182" t="s">
-        <v>486</v>
+      <c r="F1181" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1182" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1182" t="s">
         <v>346</v>
@@ -22707,10 +23811,13 @@
       <c r="E1182" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1183" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1183" t="s">
-        <v>486</v>
+      <c r="F1182" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1183" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1183" t="s">
         <v>346</v>
@@ -22721,10 +23828,13 @@
       <c r="E1183" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="1184" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1184" t="s">
-        <v>486</v>
+      <c r="F1183" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1184" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1184" t="s">
         <v>347</v>
@@ -22735,10 +23845,13 @@
       <c r="E1184" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="1185" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1185" t="s">
-        <v>486</v>
+      <c r="F1184" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1185" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1185" t="s">
         <v>348</v>
@@ -22749,10 +23862,13 @@
       <c r="E1185" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1186" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1186" t="s">
-        <v>486</v>
+      <c r="F1185" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1186" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1186" t="s">
         <v>349</v>
@@ -22763,10 +23879,13 @@
       <c r="E1186" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1187" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1187" t="s">
-        <v>486</v>
+      <c r="F1186" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1187" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1187" t="s">
         <v>350</v>
@@ -22777,10 +23896,13 @@
       <c r="E1187" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="1188" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1188" t="s">
-        <v>486</v>
+      <c r="F1187" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1188" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1188" t="s">
         <v>351</v>
@@ -22791,10 +23913,13 @@
       <c r="E1188" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="1189" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1189" t="s">
-        <v>486</v>
+      <c r="F1188" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1189" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1189" t="s">
         <v>352</v>
@@ -22805,10 +23930,13 @@
       <c r="E1189" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="1190" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1190" t="s">
-        <v>486</v>
+      <c r="F1189" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1190" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1190" t="s">
         <v>353</v>
@@ -22819,10 +23947,13 @@
       <c r="E1190" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1191" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1191" t="s">
-        <v>486</v>
+      <c r="F1190" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1191" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1191" t="s">
         <v>353</v>
@@ -22833,10 +23964,13 @@
       <c r="E1191" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1192" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1192" t="s">
-        <v>486</v>
+      <c r="F1191" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1192" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1192" t="s">
         <v>354</v>
@@ -22847,10 +23981,13 @@
       <c r="E1192" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1193" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1193" t="s">
-        <v>486</v>
+      <c r="F1192" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1193" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1193" t="s">
         <v>355</v>
@@ -22861,10 +23998,13 @@
       <c r="E1193" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1194" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1194" t="s">
-        <v>486</v>
+      <c r="F1193" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1194" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1194" t="s">
         <v>356</v>
@@ -22875,10 +24015,13 @@
       <c r="E1194" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1195" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1195" t="s">
-        <v>486</v>
+      <c r="F1194" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1195" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1195" t="s">
         <v>356</v>
@@ -22889,10 +24032,13 @@
       <c r="E1195" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1196" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1196" t="s">
-        <v>486</v>
+      <c r="F1195" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1196" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1196" t="s">
         <v>357</v>
@@ -22903,10 +24049,13 @@
       <c r="E1196" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1197" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1197" t="s">
-        <v>486</v>
+      <c r="F1196" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1197" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1197" t="s">
         <v>358</v>
@@ -22917,10 +24066,13 @@
       <c r="E1197" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="1198" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1198" t="s">
-        <v>486</v>
+      <c r="F1197" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1198" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1198" t="s">
         <v>359</v>
@@ -22931,10 +24083,13 @@
       <c r="E1198" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1199" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1199" t="s">
-        <v>486</v>
+      <c r="F1198" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1199" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1199" t="s">
         <v>360</v>
@@ -22942,10 +24097,13 @@
       <c r="C1199" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="1200" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1200" t="s">
-        <v>486</v>
+      <c r="F1199" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1200" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1200" t="s">
         <v>361</v>
@@ -22956,10 +24114,13 @@
       <c r="E1200" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="1201" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1201" t="s">
-        <v>486</v>
+      <c r="F1200" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1201" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1201" t="s">
         <v>362</v>
@@ -22970,10 +24131,13 @@
       <c r="E1201" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1202" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1202" t="s">
-        <v>486</v>
+      <c r="F1201" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1202" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1202" t="s">
         <v>65</v>
@@ -22981,10 +24145,13 @@
       <c r="C1202" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="1203" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1203" t="s">
-        <v>486</v>
+      <c r="F1202" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1203" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1203" t="s">
         <v>363</v>
@@ -22995,10 +24162,13 @@
       <c r="E1203" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="1204" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1204" t="s">
-        <v>486</v>
+      <c r="F1203" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1204" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1204" t="s">
         <v>364</v>
@@ -23009,10 +24179,13 @@
       <c r="E1204" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1205" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1205" t="s">
-        <v>486</v>
+      <c r="F1204" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1205" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1205" t="s">
         <v>365</v>
@@ -23023,10 +24196,13 @@
       <c r="E1205" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1206" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1206" t="s">
-        <v>486</v>
+      <c r="F1205" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1206" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1206" t="s">
         <v>366</v>
@@ -23034,10 +24210,13 @@
       <c r="C1206" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="1207" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1207" t="s">
-        <v>486</v>
+      <c r="F1206" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1207" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1207" t="s">
         <v>366</v>
@@ -23048,10 +24227,13 @@
       <c r="E1207" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1208" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1208" t="s">
-        <v>486</v>
+      <c r="F1207" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1208" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1208" t="s">
         <v>366</v>
@@ -23062,10 +24244,13 @@
       <c r="E1208" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1209" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1209" t="s">
-        <v>486</v>
+      <c r="F1208" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1209" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1209" t="s">
         <v>366</v>
@@ -23076,10 +24261,13 @@
       <c r="E1209" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1210" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1210" t="s">
-        <v>486</v>
+      <c r="F1209" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1210" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1210" t="s">
         <v>366</v>
@@ -23090,10 +24278,13 @@
       <c r="E1210" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1211" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1211" t="s">
-        <v>486</v>
+      <c r="F1210" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1211" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1211" t="s">
         <v>367</v>
@@ -23104,10 +24295,13 @@
       <c r="E1211" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1212" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1212" t="s">
-        <v>486</v>
+      <c r="F1211" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1212" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1212" t="s">
         <v>368</v>
@@ -23118,10 +24312,13 @@
       <c r="E1212" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="1213" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1213" t="s">
-        <v>486</v>
+      <c r="F1212" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1213" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1213" t="s">
         <v>369</v>
@@ -23132,10 +24329,13 @@
       <c r="E1213" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1214" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1214" t="s">
-        <v>486</v>
+      <c r="F1213" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1214" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1214" t="s">
         <v>370</v>
@@ -23146,10 +24346,13 @@
       <c r="E1214" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1215" t="s">
-        <v>486</v>
+      <c r="F1214" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1215" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1215" t="s">
         <v>371</v>
@@ -23160,10 +24363,13 @@
       <c r="E1215" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1216" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1216" t="s">
-        <v>486</v>
+      <c r="F1215" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1216" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1216" t="s">
         <v>372</v>
@@ -23174,10 +24380,13 @@
       <c r="E1216" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1217" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1217" t="s">
-        <v>486</v>
+      <c r="F1216" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1217" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1217" t="s">
         <v>373</v>
@@ -23188,10 +24397,13 @@
       <c r="E1217" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1218" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1218" t="s">
-        <v>486</v>
+      <c r="F1217" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1218" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1218" t="s">
         <v>374</v>
@@ -23199,10 +24411,13 @@
       <c r="C1218" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="1219" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1219" t="s">
-        <v>486</v>
+      <c r="F1218" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1219" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1219" t="s">
         <v>374</v>
@@ -23210,10 +24425,13 @@
       <c r="C1219" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="1220" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1220" t="s">
-        <v>486</v>
+      <c r="F1219" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1220" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1220" t="s">
         <v>375</v>
@@ -23224,10 +24442,13 @@
       <c r="E1220" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1221" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1221" t="s">
-        <v>486</v>
+      <c r="F1220" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1221" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1221" t="s">
         <v>376</v>
@@ -23238,10 +24459,13 @@
       <c r="E1221" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1222" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1222" t="s">
-        <v>486</v>
+      <c r="F1221" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1222" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1222" t="s">
         <v>376</v>
@@ -23252,10 +24476,13 @@
       <c r="E1222" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1223" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1223" t="s">
-        <v>486</v>
+      <c r="F1222" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1223" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1223" t="s">
         <v>377</v>
@@ -23266,10 +24493,13 @@
       <c r="E1223" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1224" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1224" t="s">
-        <v>486</v>
+      <c r="F1223" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1224" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1224" t="s">
         <v>377</v>
@@ -23280,10 +24510,13 @@
       <c r="E1224" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1225" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1225" t="s">
-        <v>486</v>
+      <c r="F1224" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1225" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1225" t="s">
         <v>378</v>
@@ -23294,10 +24527,13 @@
       <c r="E1225" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1226" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1226" t="s">
-        <v>486</v>
+      <c r="F1225" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1226" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1226" t="s">
         <v>379</v>
@@ -23308,10 +24544,13 @@
       <c r="E1226" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1227" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1227" t="s">
-        <v>486</v>
+      <c r="F1226" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1227" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1227" t="s">
         <v>380</v>
@@ -23322,10 +24561,13 @@
       <c r="E1227" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="1228" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1228" t="s">
-        <v>486</v>
+      <c r="F1227" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1228" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1228" t="s">
         <v>381</v>
@@ -23336,10 +24578,13 @@
       <c r="E1228" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="1229" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1229" t="s">
-        <v>486</v>
+      <c r="F1228" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1229" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1229" t="s">
         <v>382</v>
@@ -23350,10 +24595,13 @@
       <c r="E1229" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="1230" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1230" t="s">
-        <v>486</v>
+      <c r="F1229" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1230" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1230" t="s">
         <v>383</v>
@@ -23364,10 +24612,13 @@
       <c r="E1230" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="1231" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1231" t="s">
-        <v>486</v>
+      <c r="F1230" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1231" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1231" t="s">
         <v>98</v>
@@ -23378,10 +24629,13 @@
       <c r="E1231" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1232" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1232" t="s">
-        <v>486</v>
+      <c r="F1231" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1232" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1232" t="s">
         <v>79</v>
@@ -23392,10 +24646,13 @@
       <c r="E1232" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1233" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1233" t="s">
-        <v>486</v>
+      <c r="F1232" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1233" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1233" t="s">
         <v>80</v>
@@ -23406,10 +24663,13 @@
       <c r="E1233" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="1234" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1234" t="s">
-        <v>486</v>
+      <c r="F1233" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1234" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1234" t="s">
         <v>104</v>
@@ -23420,10 +24680,13 @@
       <c r="E1234" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1235" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1235" t="s">
-        <v>486</v>
+      <c r="F1234" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1235" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1235" t="s">
         <v>127</v>
@@ -23434,10 +24697,13 @@
       <c r="E1235" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="1236" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1236" t="s">
-        <v>486</v>
+      <c r="F1235" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1236" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1236" t="s">
         <v>90</v>
@@ -23448,10 +24714,13 @@
       <c r="E1236" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="1237" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1237" t="s">
-        <v>486</v>
+      <c r="F1236" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1237" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1237" t="s">
         <v>384</v>
@@ -23462,10 +24731,13 @@
       <c r="E1237" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1238" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1238" t="s">
-        <v>486</v>
+      <c r="F1237" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1238" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1238" t="s">
         <v>111</v>
@@ -23476,10 +24748,13 @@
       <c r="E1238" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="1239" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1239" t="s">
-        <v>486</v>
+      <c r="F1238" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1239" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1239" t="s">
         <v>385</v>
@@ -23490,10 +24765,13 @@
       <c r="E1239" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1240" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1240" t="s">
-        <v>486</v>
+      <c r="F1239" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1240" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1240" t="s">
         <v>94</v>
@@ -23501,10 +24779,13 @@
       <c r="C1240" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="1241" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1241" t="s">
-        <v>486</v>
+      <c r="F1240" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1241" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1241" t="s">
         <v>386</v>
@@ -23515,10 +24796,13 @@
       <c r="E1241" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1242" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1242" t="s">
-        <v>486</v>
+      <c r="F1241" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1242" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1242" t="s">
         <v>387</v>
@@ -23529,10 +24813,13 @@
       <c r="E1242" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1243" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1243" t="s">
-        <v>486</v>
+      <c r="F1242" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1243" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1243" t="s">
         <v>387</v>
@@ -23543,10 +24830,13 @@
       <c r="E1243" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="1244" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1244" t="s">
-        <v>486</v>
+      <c r="F1243" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1244" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1244" t="s">
         <v>388</v>
@@ -23557,10 +24847,13 @@
       <c r="E1244" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1245" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1245" t="s">
-        <v>486</v>
+      <c r="F1244" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1245" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1245" t="s">
         <v>389</v>
@@ -23571,10 +24864,13 @@
       <c r="E1245" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="1246" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1246" t="s">
-        <v>486</v>
+      <c r="F1245" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1246" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1246" t="s">
         <v>390</v>
@@ -23585,10 +24881,13 @@
       <c r="E1246" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="1247" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1247" t="s">
-        <v>486</v>
+      <c r="F1246" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1247" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1247" t="s">
         <v>391</v>
@@ -23599,10 +24898,13 @@
       <c r="E1247" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="1248" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1248" t="s">
-        <v>486</v>
+      <c r="F1247" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1248" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1248" t="s">
         <v>392</v>
@@ -23613,10 +24915,13 @@
       <c r="E1248" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1249" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1249" t="s">
-        <v>486</v>
+      <c r="F1248" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1249" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1249" t="s">
         <v>393</v>
@@ -23627,10 +24932,13 @@
       <c r="E1249" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="1250" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1250" t="s">
-        <v>486</v>
+      <c r="F1249" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1250" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1250" t="s">
         <v>393</v>
@@ -23641,10 +24949,13 @@
       <c r="E1250" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1251" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1251" t="s">
-        <v>486</v>
+      <c r="F1250" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1251" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1251" t="s">
         <v>394</v>
@@ -23652,10 +24963,13 @@
       <c r="C1251" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="1252" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1252" t="s">
-        <v>486</v>
+      <c r="F1251" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1252" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1252" t="s">
         <v>395</v>
@@ -23666,10 +24980,13 @@
       <c r="E1252" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1253" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1253" t="s">
-        <v>486</v>
+      <c r="F1252" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1253" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1253" t="s">
         <v>396</v>
@@ -23680,10 +24997,13 @@
       <c r="E1253" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="1254" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1254" t="s">
-        <v>486</v>
+      <c r="F1253" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1254" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1254" t="s">
         <v>397</v>
@@ -23694,10 +25014,13 @@
       <c r="E1254" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1255" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1255" t="s">
-        <v>486</v>
+      <c r="F1254" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1255" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1255" t="s">
         <v>398</v>
@@ -23708,10 +25031,13 @@
       <c r="E1255" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="1256" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1256" t="s">
-        <v>486</v>
+      <c r="F1255" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1256" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1256" t="s">
         <v>399</v>
@@ -23722,10 +25048,13 @@
       <c r="E1256" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="1257" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1257" t="s">
-        <v>486</v>
+      <c r="F1256" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1257" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1257" t="s">
         <v>400</v>
@@ -23736,10 +25065,13 @@
       <c r="E1257" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="1258" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1258" t="s">
-        <v>486</v>
+      <c r="F1257" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1258" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1258" t="s">
         <v>401</v>
@@ -23750,10 +25082,13 @@
       <c r="E1258" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="1259" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1259" t="s">
-        <v>486</v>
+      <c r="F1258" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1259" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1259" t="s">
         <v>402</v>
@@ -23761,10 +25096,13 @@
       <c r="C1259" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="1260" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1260" t="s">
-        <v>486</v>
+      <c r="F1259" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1260" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1260" t="s">
         <v>403</v>
@@ -23775,10 +25113,13 @@
       <c r="E1260" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1261" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1261" t="s">
-        <v>486</v>
+      <c r="F1260" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1261" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1261" t="s">
         <v>403</v>
@@ -23789,10 +25130,13 @@
       <c r="E1261" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1262" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1262" t="s">
-        <v>486</v>
+      <c r="F1261" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1262" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1262" t="s">
         <v>404</v>
@@ -23803,10 +25147,13 @@
       <c r="E1262" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1263" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1263" t="s">
-        <v>486</v>
+      <c r="F1262" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1263" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1263" t="s">
         <v>405</v>
@@ -23817,10 +25164,13 @@
       <c r="E1263" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1264" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1264" t="s">
-        <v>486</v>
+      <c r="F1263" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1264" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1264" t="s">
         <v>406</v>
@@ -23831,10 +25181,13 @@
       <c r="E1264" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1265" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1265" t="s">
-        <v>486</v>
+      <c r="F1264" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1265" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1265" t="s">
         <v>407</v>
@@ -23845,10 +25198,13 @@
       <c r="E1265" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="1266" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1266" t="s">
-        <v>486</v>
+      <c r="F1265" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1266" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1266" t="s">
         <v>408</v>
@@ -23859,10 +25215,13 @@
       <c r="E1266" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="1267" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1267" t="s">
-        <v>486</v>
+      <c r="F1266" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1267" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1267" t="s">
         <v>408</v>
@@ -23873,10 +25232,13 @@
       <c r="E1267" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1268" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1268" t="s">
-        <v>486</v>
+      <c r="F1267" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1268" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1268" t="s">
         <v>409</v>
@@ -23887,10 +25249,13 @@
       <c r="E1268" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1269" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1269" t="s">
-        <v>486</v>
+      <c r="F1268" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1269" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1269" t="s">
         <v>410</v>
@@ -23901,10 +25266,13 @@
       <c r="E1269" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="1270" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1270" t="s">
-        <v>486</v>
+      <c r="F1269" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1270" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1270" t="s">
         <v>411</v>
@@ -23915,10 +25283,13 @@
       <c r="E1270" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="1271" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1271" t="s">
-        <v>486</v>
+      <c r="F1270" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1271" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1271" t="s">
         <v>412</v>
@@ -23929,10 +25300,13 @@
       <c r="E1271" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="1272" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1272" t="s">
-        <v>486</v>
+      <c r="F1271" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1272" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1272" t="s">
         <v>413</v>
@@ -23943,10 +25317,13 @@
       <c r="E1272" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1273" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1273" t="s">
-        <v>486</v>
+      <c r="F1272" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1273" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1273" t="s">
         <v>414</v>
@@ -23957,10 +25334,13 @@
       <c r="E1273" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="1274" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1274" t="s">
-        <v>486</v>
+      <c r="F1273" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1274" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1274" t="s">
         <v>415</v>
@@ -23971,10 +25351,13 @@
       <c r="E1274" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="1275" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1275" t="s">
-        <v>486</v>
+      <c r="F1274" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1275" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1275" t="s">
         <v>416</v>
@@ -23985,10 +25368,13 @@
       <c r="E1275" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1276" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1276" t="s">
-        <v>486</v>
+      <c r="F1275" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1276" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1276" t="s">
         <v>417</v>
@@ -23999,10 +25385,13 @@
       <c r="E1276" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="1277" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1277" t="s">
-        <v>486</v>
+      <c r="F1276" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1277" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1277" t="s">
         <v>418</v>
@@ -24013,10 +25402,13 @@
       <c r="E1277" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1278" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1278" t="s">
-        <v>486</v>
+      <c r="F1277" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1278" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1278" t="s">
         <v>419</v>
@@ -24027,10 +25419,13 @@
       <c r="E1278" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1279" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1279" t="s">
-        <v>486</v>
+      <c r="F1278" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1279" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1279" t="s">
         <v>420</v>
@@ -24041,10 +25436,13 @@
       <c r="E1279" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1280" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1280" t="s">
-        <v>486</v>
+      <c r="F1279" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1280" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1280" t="s">
         <v>420</v>
@@ -24055,10 +25453,13 @@
       <c r="E1280" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1281" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1281" t="s">
-        <v>486</v>
+      <c r="F1280" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1281" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1281" t="s">
         <v>420</v>
@@ -24069,10 +25470,13 @@
       <c r="E1281" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1282" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1282" t="s">
-        <v>486</v>
+      <c r="F1281" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1282" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1282" t="s">
         <v>420</v>
@@ -24083,10 +25487,13 @@
       <c r="E1282" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1283" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1283" t="s">
-        <v>486</v>
+      <c r="F1282" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1283" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1283" t="s">
         <v>421</v>
@@ -24097,10 +25504,13 @@
       <c r="E1283" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1284" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1284" t="s">
-        <v>486</v>
+      <c r="F1283" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1284" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1284" t="s">
         <v>421</v>
@@ -24111,10 +25521,13 @@
       <c r="E1284" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1285" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1285" t="s">
-        <v>486</v>
+      <c r="F1284" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1285" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1285" t="s">
         <v>422</v>
@@ -24125,10 +25538,13 @@
       <c r="E1285" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1286" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1286" t="s">
-        <v>486</v>
+      <c r="F1285" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1286" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1286" t="s">
         <v>422</v>
@@ -24139,10 +25555,13 @@
       <c r="E1286" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1287" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1287" t="s">
-        <v>486</v>
+      <c r="F1286" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1287" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1287" t="s">
         <v>422</v>
@@ -24153,10 +25572,13 @@
       <c r="E1287" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1288" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1288" t="s">
-        <v>486</v>
+      <c r="F1287" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1288" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1288" t="s">
         <v>422</v>
@@ -24167,10 +25589,13 @@
       <c r="E1288" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="1289" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1289" t="s">
-        <v>486</v>
+      <c r="F1288" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1289" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1289" t="s">
         <v>422</v>
@@ -24181,10 +25606,13 @@
       <c r="E1289" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1290" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1290" t="s">
-        <v>486</v>
+      <c r="F1289" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1290" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1290" t="s">
         <v>422</v>
@@ -24195,10 +25623,13 @@
       <c r="E1290" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1291" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1291" t="s">
-        <v>486</v>
+      <c r="F1290" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1291" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1291" t="s">
         <v>423</v>
@@ -24209,10 +25640,13 @@
       <c r="E1291" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="1292" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1292" t="s">
-        <v>486</v>
+      <c r="F1291" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1292" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1292" t="s">
         <v>423</v>
@@ -24223,10 +25657,13 @@
       <c r="E1292" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1293" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1293" t="s">
-        <v>486</v>
+      <c r="F1292" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1293" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1293" t="s">
         <v>424</v>
@@ -24237,10 +25674,13 @@
       <c r="E1293" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="1294" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1294" t="s">
-        <v>486</v>
+      <c r="F1293" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1294" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1294" t="s">
         <v>425</v>
@@ -24251,10 +25691,13 @@
       <c r="E1294" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="1295" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1295" t="s">
-        <v>486</v>
+      <c r="F1294" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1295" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1295" t="s">
         <v>426</v>
@@ -24265,10 +25708,13 @@
       <c r="E1295" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="1296" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1296" t="s">
-        <v>486</v>
+      <c r="F1295" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1296" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1296" t="s">
         <v>427</v>
@@ -24279,10 +25725,13 @@
       <c r="E1296" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="1297" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1297" t="s">
-        <v>486</v>
+      <c r="F1296" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1297" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1297" t="s">
         <v>428</v>
@@ -24293,10 +25742,13 @@
       <c r="E1297" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1298" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1298" t="s">
-        <v>486</v>
+      <c r="F1297" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1298" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1298" t="s">
         <v>429</v>
@@ -24307,10 +25759,13 @@
       <c r="E1298" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1299" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1299" t="s">
-        <v>486</v>
+      <c r="F1298" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1299" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1299" t="s">
         <v>430</v>
@@ -24321,10 +25776,13 @@
       <c r="E1299" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="1300" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1300" t="s">
-        <v>486</v>
+      <c r="F1299" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1300" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1300" t="s">
         <v>431</v>
@@ -24335,10 +25793,13 @@
       <c r="E1300" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="1301" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1301" t="s">
-        <v>486</v>
+      <c r="F1300" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1301" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1301" t="s">
         <v>432</v>
@@ -24349,10 +25810,13 @@
       <c r="E1301" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="1302" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1302" t="s">
-        <v>486</v>
+      <c r="F1301" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1302" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1302" t="s">
         <v>433</v>
@@ -24363,10 +25827,13 @@
       <c r="E1302" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="1303" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1303" t="s">
-        <v>486</v>
+      <c r="F1302" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1303" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1303" t="s">
         <v>433</v>
@@ -24377,10 +25844,13 @@
       <c r="E1303" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="1304" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1304" t="s">
-        <v>486</v>
+      <c r="F1303" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1304" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1304" t="s">
         <v>434</v>
@@ -24391,10 +25861,13 @@
       <c r="E1304" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="1305" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1305" t="s">
-        <v>486</v>
+      <c r="F1304" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1305" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1305" t="s">
         <v>435</v>
@@ -24405,10 +25878,13 @@
       <c r="E1305" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1306" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1306" t="s">
-        <v>486</v>
+      <c r="F1305" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1306" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1306" t="s">
         <v>436</v>
@@ -24416,10 +25892,13 @@
       <c r="C1306" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="1307" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1307" t="s">
-        <v>486</v>
+      <c r="F1306" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1307" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1307" t="s">
         <v>437</v>
@@ -24430,10 +25909,13 @@
       <c r="E1307" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1308" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1308" t="s">
-        <v>486</v>
+      <c r="F1307" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1308" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1308" t="s">
         <v>438</v>
@@ -24444,10 +25926,13 @@
       <c r="E1308" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="1309" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1309" t="s">
-        <v>486</v>
+      <c r="F1308" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1309" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1309" t="s">
         <v>439</v>
@@ -24458,10 +25943,13 @@
       <c r="E1309" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="1310" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1310" t="s">
-        <v>486</v>
+      <c r="F1309" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1310" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1310" t="s">
         <v>440</v>
@@ -24472,10 +25960,13 @@
       <c r="E1310" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="1311" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1311" t="s">
-        <v>486</v>
+      <c r="F1310" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1311" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1311" t="s">
         <v>441</v>
@@ -24486,10 +25977,13 @@
       <c r="E1311" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="1312" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1312" t="s">
-        <v>486</v>
+      <c r="F1311" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1312" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1312" t="s">
         <v>442</v>
@@ -24500,10 +25994,13 @@
       <c r="E1312" t="s">
         <v>477</v>
       </c>
+      <c r="F1312" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="1313" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1313" t="s">
-        <v>486</v>
+      <c r="A1313" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1313" t="s">
         <v>443</v>
@@ -24514,10 +26011,13 @@
       <c r="E1313" t="s">
         <v>475</v>
       </c>
+      <c r="F1313" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="1314" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1314" t="s">
-        <v>486</v>
+      <c r="A1314" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1314" t="s">
         <v>443</v>
@@ -24528,10 +26028,13 @@
       <c r="E1314" t="s">
         <v>477</v>
       </c>
+      <c r="F1314" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="1315" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1315" t="s">
-        <v>486</v>
+      <c r="A1315" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1315" t="s">
         <v>444</v>
@@ -24542,10 +26045,13 @@
       <c r="E1315" t="s">
         <v>475</v>
       </c>
+      <c r="F1315" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="1316" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1316" t="s">
-        <v>486</v>
+      <c r="A1316" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1316" t="s">
         <v>445</v>
@@ -24556,10 +26062,13 @@
       <c r="E1316" t="s">
         <v>477</v>
       </c>
+      <c r="F1316" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="1317" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1317" t="s">
-        <v>486</v>
+      <c r="A1317" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1317" t="s">
         <v>446</v>
@@ -24570,10 +26079,13 @@
       <c r="E1317" t="s">
         <v>477</v>
       </c>
+      <c r="F1317" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="1318" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1318" t="s">
-        <v>486</v>
+      <c r="A1318" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1318" t="s">
         <v>447</v>
@@ -24584,10 +26096,13 @@
       <c r="E1318" t="s">
         <v>476</v>
       </c>
+      <c r="F1318" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="1319" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1319" t="s">
-        <v>486</v>
+      <c r="A1319" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1319" t="s">
         <v>448</v>
@@ -24598,10 +26113,13 @@
       <c r="E1319" t="s">
         <v>475</v>
       </c>
+      <c r="F1319" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="1320" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1320" t="s">
-        <v>486</v>
+      <c r="A1320" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1320" t="s">
         <v>449</v>
@@ -24612,10 +26130,13 @@
       <c r="E1320" t="s">
         <v>476</v>
       </c>
+      <c r="F1320" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="1321" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1321" t="s">
-        <v>486</v>
+      <c r="A1321" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1321" t="s">
         <v>450</v>
@@ -24626,10 +26147,13 @@
       <c r="E1321" t="s">
         <v>477</v>
       </c>
+      <c r="F1321" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="1322" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1322" t="s">
-        <v>486</v>
+      <c r="A1322" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1322" t="s">
         <v>451</v>
@@ -24640,10 +26164,13 @@
       <c r="E1322" t="s">
         <v>476</v>
       </c>
+      <c r="F1322" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="1323" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1323" t="s">
-        <v>486</v>
+      <c r="A1323" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="B1323" t="s">
         <v>452</v>
@@ -24654,10 +26181,13 @@
       <c r="E1323" t="s">
         <v>475</v>
       </c>
+      <c r="F1323" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="1324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1324" s="4" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B1324" t="s">
         <v>453</v>
@@ -24674,7 +26204,7 @@
     </row>
     <row r="1325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1325" s="4" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B1325" t="s">
         <v>453</v>
@@ -24691,7 +26221,7 @@
     </row>
     <row r="1326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1326" s="4" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B1326" t="s">
         <v>455</v>
@@ -24708,7 +26238,7 @@
     </row>
     <row r="1327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1327" s="4" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B1327" t="s">
         <v>456</v>
@@ -24725,7 +26255,7 @@
     </row>
     <row r="1328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1328" s="4" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B1328" t="s">
         <v>456</v>
@@ -24742,7 +26272,7 @@
     </row>
     <row r="1329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1329" s="4" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B1329" t="s">
         <v>455</v>
@@ -24759,7 +26289,7 @@
     </row>
     <row r="1330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1330" s="4" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B1330" t="s">
         <v>456</v>
@@ -24776,7 +26306,7 @@
     </row>
     <row r="1331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1331" s="4" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B1331" t="s">
         <v>457</v>
@@ -24793,7 +26323,7 @@
     </row>
     <row r="1332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1332" s="4" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B1332" t="s">
         <v>458</v>
@@ -24810,7 +26340,7 @@
     </row>
     <row r="1333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1333" s="4" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B1333" t="s">
         <v>459</v>
@@ -24827,7 +26357,7 @@
     </row>
     <row r="1334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1334" s="4" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B1334" t="s">
         <v>460</v>
@@ -24844,7 +26374,7 @@
     </row>
     <row r="1335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1335" s="4" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B1335" t="s">
         <v>459</v>
@@ -24856,12 +26386,12 @@
         <v>7</v>
       </c>
       <c r="F1335" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="1336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1336" s="4" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B1336" t="s">
         <v>461</v>
@@ -24878,7 +26408,7 @@
     </row>
     <row r="1337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1337" s="4" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B1337" t="s">
         <v>462</v>
@@ -24895,7 +26425,7 @@
     </row>
     <row r="1338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1338" s="4" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B1338" t="s">
         <v>463</v>
@@ -24912,7 +26442,7 @@
     </row>
     <row r="1339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1339" s="4" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B1339" t="s">
         <v>462</v>
@@ -24929,7 +26459,7 @@
     </row>
     <row r="1340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1340" s="4" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B1340" t="s">
         <v>464</v>
@@ -24946,7 +26476,7 @@
     </row>
     <row r="1341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1341" s="4" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B1341" t="s">
         <v>465</v>
@@ -24963,7 +26493,7 @@
     </row>
     <row r="1342" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1342" s="4" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B1342" t="s">
         <v>463</v>
@@ -24980,7 +26510,7 @@
     </row>
     <row r="1343" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1343" s="4" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B1343" t="s">
         <v>463</v>
@@ -24997,7 +26527,7 @@
     </row>
     <row r="1344" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1344" s="4" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B1344" t="s">
         <v>464</v>
@@ -25014,7 +26544,7 @@
     </row>
     <row r="1345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1345" s="4" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B1345" t="s">
         <v>463</v>
@@ -25031,7 +26561,7 @@
     </row>
     <row r="1346" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1346" s="4" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B1346" t="s">
         <v>463</v>
